--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>FindM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메토 순위 / 베스트 멘토 </t>
+  </si>
+  <si>
+    <t>멘토별로 순위를 매기고, 가장 높은 평점을 가진 멘토 선정</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1544,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1764,12 +1770,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="44">
     <border>
@@ -2454,7 +2454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="477">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3831,12 +3831,6 @@
     </xf>
     <xf numFmtId="0" fontId="80" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="81" fillId="38" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4571,7 +4565,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -4580,7 +4574,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="31.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="36.44944594" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -5453,7 +5447,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="476"/>
+      <c r="A5" s="474"/>
       <c r="B5" s="330"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
@@ -5485,7 +5479,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="476"/>
+      <c r="A6" s="474"/>
       <c r="B6" s="330"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
@@ -5517,7 +5511,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="476"/>
+      <c r="A7" s="474"/>
       <c r="B7" s="330"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
@@ -5549,7 +5543,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="476"/>
+      <c r="A8" s="474"/>
       <c r="B8" s="330"/>
       <c r="C8" s="259" t="s">
         <v>199</v>
@@ -5581,7 +5575,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="476"/>
+      <c r="A9" s="474"/>
       <c r="B9" s="330"/>
       <c r="C9" s="259" t="s">
         <v>194</v>
@@ -5613,16 +5607,16 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A10" s="477"/>
+      <c r="A10" s="475"/>
       <c r="B10" s="330"/>
       <c r="C10" s="260" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="D10" s="259" t="s">
         <v>229</v>
       </c>
       <c r="E10" s="259" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="F10" s="261" t="s">
         <v>51</v>
@@ -5645,7 +5639,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A11" s="477"/>
+      <c r="A11" s="475"/>
       <c r="B11" s="330"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
@@ -5677,7 +5671,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A12" s="477"/>
+      <c r="A12" s="475"/>
       <c r="B12" s="332"/>
       <c r="C12" s="259" t="s">
         <v>292</v>
@@ -5710,7 +5704,7 @@
       <c r="M12" s="288"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A13" s="476"/>
+      <c r="A13" s="474"/>
       <c r="B13" s="468"/>
       <c r="C13" s="259" t="s">
         <v>297</v>
@@ -5742,7 +5736,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A14" s="477"/>
+      <c r="A14" s="475"/>
       <c r="B14" s="413" t="s">
         <v>206</v>
       </c>
@@ -5776,7 +5770,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A15" s="477"/>
+      <c r="A15" s="475"/>
       <c r="B15" s="410"/>
       <c r="C15" s="259" t="s">
         <v>208</v>
@@ -5808,7 +5802,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A16" s="477"/>
+      <c r="A16" s="475"/>
       <c r="B16" s="410"/>
       <c r="C16" s="259" t="s">
         <v>209</v>
@@ -5840,7 +5834,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A17" s="477"/>
+      <c r="A17" s="475"/>
       <c r="B17" s="410"/>
       <c r="C17" s="259" t="s">
         <v>201</v>
@@ -5872,7 +5866,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A18" s="477"/>
+      <c r="A18" s="475"/>
       <c r="B18" s="410"/>
       <c r="C18" s="259" t="s">
         <v>204</v>
@@ -5904,7 +5898,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A19" s="477"/>
+      <c r="A19" s="475"/>
       <c r="B19" s="410"/>
       <c r="C19" s="259" t="s">
         <v>210</v>
@@ -5937,7 +5931,7 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A20" s="477"/>
+      <c r="A20" s="475"/>
       <c r="B20" s="411"/>
       <c r="C20" s="259" t="s">
         <v>212</v>
@@ -5969,7 +5963,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A21" s="477"/>
+      <c r="A21" s="475"/>
       <c r="B21" s="410"/>
       <c r="C21" s="259" t="s">
         <v>202</v>
@@ -6001,7 +5995,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A22" s="477"/>
+      <c r="A22" s="475"/>
       <c r="B22" s="410"/>
       <c r="C22" s="259" t="s">
         <v>203</v>
@@ -6033,7 +6027,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A23" s="477"/>
+      <c r="A23" s="475"/>
       <c r="B23" s="410"/>
       <c r="C23" s="259" t="s">
         <v>213</v>
@@ -6065,7 +6059,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="478"/>
+      <c r="A24" s="476"/>
       <c r="B24" s="341"/>
       <c r="C24" s="259" t="s">
         <v>310</v>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -976,6 +976,12 @@
   </si>
   <si>
     <t>멘토별로 순위를 매기고, 가장 높은 평점을 가진 멘토 선정</t>
+  </si>
+  <si>
+    <t>QnAqW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">멘토 순위 / 베스트 멘토 </t>
   </si>
 </sst>
 </file>
@@ -4564,8 +4570,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5610,7 +5616,7 @@
       <c r="A10" s="475"/>
       <c r="B10" s="330"/>
       <c r="C10" s="260" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D10" s="259" t="s">
         <v>229</v>
@@ -5722,7 +5728,7 @@
         <v>62</v>
       </c>
       <c r="H13" s="261" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I13" s="259"/>
       <c r="J13" s="259" t="s">

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -982,6 +982,15 @@
   </si>
   <si>
     <t xml:space="preserve">멘토 순위 / 베스트 멘토 </t>
+  </si>
+  <si>
+    <t>학교 소개</t>
+  </si>
+  <si>
+    <t>서일대학교의 각 부처에 대해 소개함</t>
+  </si>
+  <si>
+    <t>SchoolW</t>
   </si>
 </sst>
 </file>
@@ -989,7 +998,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="95">
+  <fonts count="96">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -1547,6 +1556,11 @@
     <font>
       <sz val="24.0"/>
       <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -1777,7 +1791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2280,6 +2294,16 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2460,7 +2484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3854,6 +3878,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3945,7 +3972,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19685" y="13970"/>
+          <a:off x="13970" y="10160"/>
           <a:ext cx="9528175" cy="5786755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4098,7 +4125,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="102870" y="2637155"/>
+          <a:off x="97155" y="2633345"/>
           <a:ext cx="9324975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line"/>
@@ -4173,7 +4200,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5677535" y="4558665"/>
+          <a:off x="5671820" y="4554855"/>
           <a:ext cx="3905250" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4568,10 +4595,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B19" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5709,9 +5736,9 @@
       </c>
       <c r="M12" s="288"/>
     </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A13" s="474"/>
-      <c r="B13" s="468"/>
+    <row r="13" spans="1:13" ht="20.000000">
+      <c r="A13" s="477"/>
+      <c r="B13" s="332"/>
       <c r="C13" s="259" t="s">
         <v>297</v>
       </c>
@@ -5740,61 +5767,60 @@
       <c r="L13" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M13" s="288"/>
     </row>
-    <row r="14" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A14" s="475"/>
-      <c r="B14" s="413" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="259" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="260" t="s">
-        <v>232</v>
+    <row r="14" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A14" s="474"/>
+      <c r="B14" s="468"/>
+      <c r="C14" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>306</v>
       </c>
       <c r="E14" s="259" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="261" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="258" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="261" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="261"/>
-      <c r="J14" s="264" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259" t="s">
         <v>126</v>
       </c>
       <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="264" t="s">
-        <v>126</v>
-      </c>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A15" s="475"/>
-      <c r="B15" s="410"/>
+      <c r="B15" s="413" t="s">
+        <v>206</v>
+      </c>
       <c r="C15" s="259" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="D15" s="260" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F15" s="261" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G15" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I15" s="261"/>
       <c r="J15" s="264" t="s">
@@ -5806,18 +5832,19 @@
       <c r="L15" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A16" s="475"/>
       <c r="B16" s="410"/>
       <c r="C16" s="259" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="261" t="s">
         <v>126</v>
@@ -5826,7 +5853,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I16" s="261"/>
       <c r="J16" s="264" t="s">
@@ -5843,13 +5870,13 @@
       <c r="A17" s="475"/>
       <c r="B17" s="410"/>
       <c r="C17" s="259" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D17" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="261" t="s">
         <v>126</v>
@@ -5858,7 +5885,7 @@
         <v>62</v>
       </c>
       <c r="H17" s="261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I17" s="261"/>
       <c r="J17" s="264" t="s">
@@ -5875,13 +5902,13 @@
       <c r="A18" s="475"/>
       <c r="B18" s="410"/>
       <c r="C18" s="259" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D18" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E18" s="259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" s="261" t="s">
         <v>126</v>
@@ -5890,7 +5917,7 @@
         <v>62</v>
       </c>
       <c r="H18" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I18" s="261"/>
       <c r="J18" s="264" t="s">
@@ -5907,13 +5934,13 @@
       <c r="A19" s="475"/>
       <c r="B19" s="410"/>
       <c r="C19" s="259" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D19" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="261" t="s">
         <v>126</v>
@@ -5922,7 +5949,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I19" s="261"/>
       <c r="J19" s="264" t="s">
@@ -5934,19 +5961,18 @@
       <c r="L19" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A20" s="475"/>
-      <c r="B20" s="411"/>
+      <c r="B20" s="410"/>
       <c r="C20" s="259" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="261" t="s">
         <v>126</v>
@@ -5955,7 +5981,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="261" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I20" s="261"/>
       <c r="J20" s="264" t="s">
@@ -5967,18 +5993,19 @@
       <c r="L20" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A21" s="475"/>
-      <c r="B21" s="410"/>
+      <c r="B21" s="411"/>
       <c r="C21" s="259" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D21" s="260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" s="261" t="s">
         <v>126</v>
@@ -5987,7 +6014,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="261" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21" s="261"/>
       <c r="J21" s="264" t="s">
@@ -5999,27 +6026,28 @@
       <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="475"/>
       <c r="B22" s="410"/>
       <c r="C22" s="259" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" s="259" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" s="261" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G22" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H22" s="261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I22" s="261"/>
       <c r="J22" s="264" t="s">
@@ -6032,26 +6060,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.000000" customHeight="1">
+    <row r="23" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A23" s="475"/>
       <c r="B23" s="410"/>
       <c r="C23" s="259" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D23" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F23" s="261" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="G23" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="261" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="261"/>
       <c r="J23" s="264" t="s">
@@ -6065,61 +6093,57 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="476"/>
-      <c r="B24" s="341"/>
+      <c r="A24" s="475"/>
+      <c r="B24" s="410"/>
       <c r="C24" s="259" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="D24" s="260" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="E24" s="259" t="s">
-        <v>312</v>
-      </c>
-      <c r="F24" s="258" t="s">
-        <v>51</v>
+        <v>264</v>
+      </c>
+      <c r="F24" s="261" t="s">
+        <v>125</v>
       </c>
       <c r="G24" s="261" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H24" s="261" t="s">
-        <v>313</v>
-      </c>
-      <c r="I24" s="259"/>
-      <c r="J24" s="259" t="s">
+        <v>291</v>
+      </c>
+      <c r="I24" s="261"/>
+      <c r="J24" s="264" t="s">
         <v>126</v>
       </c>
       <c r="K24" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="259" t="s">
+      <c r="L24" s="264" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A25" s="470" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="338" t="s">
-        <v>207</v>
-      </c>
+      <c r="A25" s="476"/>
+      <c r="B25" s="341"/>
       <c r="C25" s="259" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="259" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="D25" s="260" t="s">
+        <v>311</v>
       </c>
       <c r="E25" s="259" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F25" s="258" t="s">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="G25" s="261" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="261" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I25" s="259"/>
       <c r="J25" s="259" t="s">
@@ -6133,18 +6157,40 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A26" s="387"/>
-      <c r="B26" s="388"/>
-      <c r="C26" s="388"/>
-      <c r="D26" s="388"/>
-      <c r="E26" s="388"/>
-      <c r="F26" s="390"/>
-      <c r="G26" s="390"/>
-      <c r="H26" s="388"/>
-      <c r="I26" s="392"/>
-      <c r="J26" s="392"/>
-      <c r="K26" s="392"/>
-      <c r="L26" s="23"/>
+      <c r="A26" s="470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="338" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="259" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="259" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="261" t="s">
+        <v>308</v>
+      </c>
+      <c r="I26" s="259"/>
+      <c r="J26" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="259" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A27" s="387"/>
@@ -6230,20 +6276,44 @@
       <c r="K32" s="392"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="4:5" ht="18.000000" customHeight="1">
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+    <row r="33" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A33" s="387"/>
+      <c r="B33" s="388"/>
+      <c r="C33" s="388"/>
+      <c r="D33" s="388"/>
+      <c r="E33" s="388"/>
+      <c r="F33" s="390"/>
+      <c r="G33" s="390"/>
+      <c r="H33" s="388"/>
+      <c r="I33" s="392"/>
+      <c r="J33" s="392"/>
+      <c r="K33" s="392"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21 K26:K32 K22:K23 K5:K12 K14:K19 K4 K20 K13 K24 K25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22 K27:K33 K23:K24 K5:K12 K15:K20 K4 K21 K25 K26 K13 K14">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>SchoolW</t>
+  </si>
+  <si>
+    <t>SW-12</t>
   </si>
 </sst>
 </file>
@@ -4597,8 +4600,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5772,10 +5775,10 @@
     <row r="14" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A14" s="474"/>
       <c r="B14" s="468"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="259" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="259" t="s">
         <v>306</v>
       </c>
       <c r="E14" s="259" t="s">
@@ -5797,7 +5800,6 @@
       <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A15" s="475"/>
@@ -5832,7 +5834,6 @@
       <c r="L15" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A16" s="475"/>
@@ -6026,7 +6027,6 @@
       <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="475"/>
@@ -6167,7 +6167,7 @@
         <v>305</v>
       </c>
       <c r="D26" s="259" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E26" s="259" t="s">
         <v>307</v>
@@ -6291,18 +6291,8 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="18.000000" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>SW-12</t>
+  </si>
+  <si>
+    <t>알림</t>
+  </si>
+  <si>
+    <t>예약 내역 변경 시 사용자에게 알림</t>
+  </si>
+  <si>
+    <t>MessageW</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2307,6 +2316,12 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2487,7 +2502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3884,6 +3899,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4598,10 +4661,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5450,7 +5513,7 @@
       <c r="A4" s="409" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="413" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="259" t="s">
@@ -5483,8 +5546,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="474"/>
-      <c r="B5" s="330"/>
+      <c r="A5" s="488"/>
+      <c r="B5" s="490"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
       </c>
@@ -5515,8 +5578,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="474"/>
-      <c r="B6" s="330"/>
+      <c r="A6" s="488"/>
+      <c r="B6" s="490"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
       </c>
@@ -5547,8 +5610,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="474"/>
-      <c r="B7" s="330"/>
+      <c r="A7" s="488"/>
+      <c r="B7" s="490"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
       </c>
@@ -5579,8 +5642,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="474"/>
-      <c r="B8" s="330"/>
+      <c r="A8" s="488"/>
+      <c r="B8" s="490"/>
       <c r="C8" s="259" t="s">
         <v>199</v>
       </c>
@@ -5611,8 +5674,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="474"/>
-      <c r="B9" s="330"/>
+      <c r="A9" s="488"/>
+      <c r="B9" s="490"/>
       <c r="C9" s="259" t="s">
         <v>194</v>
       </c>
@@ -5643,8 +5706,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A10" s="475"/>
-      <c r="B10" s="330"/>
+      <c r="A10" s="477"/>
+      <c r="B10" s="490"/>
       <c r="C10" s="260" t="s">
         <v>317</v>
       </c>
@@ -5675,8 +5738,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A11" s="475"/>
-      <c r="B11" s="330"/>
+      <c r="A11" s="477"/>
+      <c r="B11" s="490"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
       </c>
@@ -5707,8 +5770,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A12" s="475"/>
-      <c r="B12" s="332"/>
+      <c r="A12" s="477"/>
+      <c r="B12" s="492"/>
       <c r="C12" s="259" t="s">
         <v>292</v>
       </c>
@@ -5739,9 +5802,9 @@
       </c>
       <c r="M12" s="288"/>
     </row>
-    <row r="13" spans="1:13" ht="20.000000">
+    <row r="13" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A13" s="477"/>
-      <c r="B13" s="332"/>
+      <c r="B13" s="492"/>
       <c r="C13" s="259" t="s">
         <v>297</v>
       </c>
@@ -5772,26 +5835,26 @@
       </c>
       <c r="M13" s="288"/>
     </row>
-    <row r="14" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A14" s="474"/>
-      <c r="B14" s="468"/>
+    <row r="14" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A14" s="477"/>
+      <c r="B14" s="492"/>
       <c r="C14" s="259" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D14" s="259" t="s">
         <v>306</v>
       </c>
       <c r="E14" s="259" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F14" s="258" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="261" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I14" s="259"/>
       <c r="J14" s="259" t="s">
@@ -5800,61 +5863,66 @@
       <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
+      <c r="L14" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="288"/>
     </row>
-    <row r="15" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A15" s="475"/>
-      <c r="B15" s="413" t="s">
-        <v>206</v>
-      </c>
+    <row r="15" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A15" s="488"/>
+      <c r="B15" s="493"/>
       <c r="C15" s="259" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="260" t="s">
-        <v>232</v>
+        <v>318</v>
+      </c>
+      <c r="D15" s="259" t="s">
+        <v>321</v>
       </c>
       <c r="E15" s="259" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="261" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="258" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="261" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="261"/>
-      <c r="J15" s="264" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259" t="s">
         <v>126</v>
       </c>
       <c r="K15" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="264" t="s">
+      <c r="L15" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A16" s="475"/>
-      <c r="B16" s="410"/>
+      <c r="A16" s="477"/>
+      <c r="B16" s="413" t="s">
+        <v>206</v>
+      </c>
       <c r="C16" s="259" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="261" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G16" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="261"/>
       <c r="J16" s="264" t="s">
@@ -5868,16 +5936,16 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A17" s="475"/>
-      <c r="B17" s="410"/>
+      <c r="A17" s="477"/>
+      <c r="B17" s="490"/>
       <c r="C17" s="259" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="261" t="s">
         <v>126</v>
@@ -5886,7 +5954,7 @@
         <v>62</v>
       </c>
       <c r="H17" s="261" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I17" s="261"/>
       <c r="J17" s="264" t="s">
@@ -5900,16 +5968,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A18" s="475"/>
-      <c r="B18" s="410"/>
+      <c r="A18" s="477"/>
+      <c r="B18" s="490"/>
       <c r="C18" s="259" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D18" s="260" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="261" t="s">
         <v>126</v>
@@ -5918,7 +5986,7 @@
         <v>62</v>
       </c>
       <c r="H18" s="261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I18" s="261"/>
       <c r="J18" s="264" t="s">
@@ -5932,16 +6000,16 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A19" s="475"/>
-      <c r="B19" s="410"/>
+      <c r="A19" s="477"/>
+      <c r="B19" s="490"/>
       <c r="C19" s="259" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D19" s="260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="261" t="s">
         <v>126</v>
@@ -5950,7 +6018,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I19" s="261"/>
       <c r="J19" s="264" t="s">
@@ -5964,16 +6032,16 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A20" s="475"/>
-      <c r="B20" s="410"/>
+      <c r="A20" s="477"/>
+      <c r="B20" s="490"/>
       <c r="C20" s="259" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D20" s="260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" s="259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" s="261" t="s">
         <v>126</v>
@@ -5982,7 +6050,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="261" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="261"/>
       <c r="J20" s="264" t="s">
@@ -5994,19 +6062,18 @@
       <c r="L20" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A21" s="475"/>
-      <c r="B21" s="411"/>
+      <c r="A21" s="477"/>
+      <c r="B21" s="490"/>
       <c r="C21" s="259" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D21" s="260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="261" t="s">
         <v>126</v>
@@ -6015,7 +6082,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="261" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I21" s="261"/>
       <c r="J21" s="264" t="s">
@@ -6027,18 +6094,19 @@
       <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A22" s="475"/>
-      <c r="B22" s="410"/>
+      <c r="A22" s="477"/>
+      <c r="B22" s="491"/>
       <c r="C22" s="259" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D22" s="260" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" s="259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F22" s="261" t="s">
         <v>126</v>
@@ -6047,7 +6115,7 @@
         <v>62</v>
       </c>
       <c r="H22" s="261" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I22" s="261"/>
       <c r="J22" s="264" t="s">
@@ -6061,25 +6129,25 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A23" s="475"/>
-      <c r="B23" s="410"/>
+      <c r="A23" s="477"/>
+      <c r="B23" s="490"/>
       <c r="C23" s="259" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E23" s="259" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="261" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G23" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="261" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I23" s="261"/>
       <c r="J23" s="264" t="s">
@@ -6092,26 +6160,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="475"/>
-      <c r="B24" s="410"/>
+    <row r="24" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A24" s="477"/>
+      <c r="B24" s="490"/>
       <c r="C24" s="259" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D24" s="260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24" s="259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24" s="261" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="G24" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H24" s="261" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I24" s="261"/>
       <c r="J24" s="264" t="s">
@@ -6125,61 +6193,57 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A25" s="476"/>
-      <c r="B25" s="341"/>
+      <c r="A25" s="477"/>
+      <c r="B25" s="490"/>
       <c r="C25" s="259" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="D25" s="260" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="E25" s="259" t="s">
-        <v>312</v>
-      </c>
-      <c r="F25" s="258" t="s">
-        <v>51</v>
+        <v>264</v>
+      </c>
+      <c r="F25" s="261" t="s">
+        <v>125</v>
       </c>
       <c r="G25" s="261" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H25" s="261" t="s">
-        <v>313</v>
-      </c>
-      <c r="I25" s="259"/>
-      <c r="J25" s="259" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" s="261"/>
+      <c r="J25" s="264" t="s">
         <v>126</v>
       </c>
       <c r="K25" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="259" t="s">
+      <c r="L25" s="264" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A26" s="470" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="338" t="s">
-        <v>207</v>
-      </c>
+      <c r="A26" s="489"/>
+      <c r="B26" s="414"/>
       <c r="C26" s="259" t="s">
-        <v>305</v>
-      </c>
-      <c r="D26" s="259" t="s">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="D26" s="260" t="s">
+        <v>311</v>
       </c>
       <c r="E26" s="259" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F26" s="258" t="s">
-        <v>298</v>
+        <v>51</v>
       </c>
       <c r="G26" s="261" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="261" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I26" s="259"/>
       <c r="J26" s="259" t="s">
@@ -6193,18 +6257,40 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A27" s="387"/>
-      <c r="B27" s="388"/>
-      <c r="C27" s="388"/>
-      <c r="D27" s="388"/>
-      <c r="E27" s="388"/>
-      <c r="F27" s="390"/>
-      <c r="G27" s="390"/>
-      <c r="H27" s="388"/>
-      <c r="I27" s="392"/>
-      <c r="J27" s="392"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="23"/>
+      <c r="A27" s="470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="338" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="259" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="259" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="261" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" s="259"/>
+      <c r="J27" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="259" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A28" s="387"/>
@@ -6291,19 +6377,33 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="18.000000" customHeight="1">
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="A34" s="387"/>
+      <c r="B34" s="388"/>
+      <c r="C34" s="388"/>
+      <c r="D34" s="388"/>
+      <c r="E34" s="388"/>
+      <c r="F34" s="390"/>
+      <c r="G34" s="390"/>
+      <c r="H34" s="388"/>
+      <c r="I34" s="392"/>
+      <c r="J34" s="392"/>
+      <c r="K34" s="392"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A25"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="A4:A26"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B16:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22 K27:K33 K23:K24 K5:K12 K15:K20 K4 K21 K25 K26 K13 K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23 K28:K34 K24:K25 K5:K12 K16:K21 K4 K22 K26 K27 K13 K14 K15">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="목록" sheetId="96" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">목록!$A$1:$J$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">목록!$A$1:$L$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">목록!$1:$5</definedName>
   </definedNames>
@@ -1010,7 +1010,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="96">
+  <fonts count="95">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -1568,11 +1568,6 @@
     <font>
       <sz val="24.0"/>
       <name val="Times New Roman"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -1803,7 +1798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2316,12 +2311,6 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2502,7 +2491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3923,12 +3912,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4663,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5546,8 +5529,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="488"/>
-      <c r="B5" s="490"/>
+      <c r="A5" s="486"/>
+      <c r="B5" s="488"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
       </c>
@@ -5578,8 +5561,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="488"/>
-      <c r="B6" s="490"/>
+      <c r="A6" s="486"/>
+      <c r="B6" s="488"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
       </c>
@@ -5610,8 +5593,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="488"/>
-      <c r="B7" s="490"/>
+      <c r="A7" s="486"/>
+      <c r="B7" s="488"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
       </c>
@@ -5642,8 +5625,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="488"/>
-      <c r="B8" s="490"/>
+      <c r="A8" s="486"/>
+      <c r="B8" s="488"/>
       <c r="C8" s="259" t="s">
         <v>199</v>
       </c>
@@ -5674,8 +5657,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="488"/>
-      <c r="B9" s="490"/>
+      <c r="A9" s="486"/>
+      <c r="B9" s="488"/>
       <c r="C9" s="259" t="s">
         <v>194</v>
       </c>
@@ -5707,7 +5690,7 @@
     </row>
     <row r="10" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A10" s="477"/>
-      <c r="B10" s="490"/>
+      <c r="B10" s="488"/>
       <c r="C10" s="260" t="s">
         <v>317</v>
       </c>
@@ -5739,7 +5722,7 @@
     </row>
     <row r="11" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A11" s="477"/>
-      <c r="B11" s="490"/>
+      <c r="B11" s="488"/>
       <c r="C11" s="259" t="s">
         <v>198</v>
       </c>
@@ -5771,7 +5754,7 @@
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A12" s="477"/>
-      <c r="B12" s="492"/>
+      <c r="B12" s="490"/>
       <c r="C12" s="259" t="s">
         <v>292</v>
       </c>
@@ -5804,7 +5787,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A13" s="477"/>
-      <c r="B13" s="492"/>
+      <c r="B13" s="490"/>
       <c r="C13" s="259" t="s">
         <v>297</v>
       </c>
@@ -5837,7 +5820,7 @@
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A14" s="477"/>
-      <c r="B14" s="492"/>
+      <c r="B14" s="490"/>
       <c r="C14" s="259" t="s">
         <v>322</v>
       </c>
@@ -5869,8 +5852,8 @@
       <c r="M14" s="288"/>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A15" s="488"/>
-      <c r="B15" s="493"/>
+      <c r="A15" s="486"/>
+      <c r="B15" s="491"/>
       <c r="C15" s="259" t="s">
         <v>318</v>
       </c>
@@ -5899,7 +5882,6 @@
       <c r="L15" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A16" s="477"/>
@@ -5937,7 +5919,7 @@
     </row>
     <row r="17" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A17" s="477"/>
-      <c r="B17" s="490"/>
+      <c r="B17" s="488"/>
       <c r="C17" s="259" t="s">
         <v>208</v>
       </c>
@@ -5969,7 +5951,7 @@
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A18" s="477"/>
-      <c r="B18" s="490"/>
+      <c r="B18" s="488"/>
       <c r="C18" s="259" t="s">
         <v>209</v>
       </c>
@@ -6001,7 +5983,7 @@
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A19" s="477"/>
-      <c r="B19" s="490"/>
+      <c r="B19" s="488"/>
       <c r="C19" s="259" t="s">
         <v>201</v>
       </c>
@@ -6033,7 +6015,7 @@
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A20" s="477"/>
-      <c r="B20" s="490"/>
+      <c r="B20" s="488"/>
       <c r="C20" s="259" t="s">
         <v>204</v>
       </c>
@@ -6065,7 +6047,7 @@
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A21" s="477"/>
-      <c r="B21" s="490"/>
+      <c r="B21" s="488"/>
       <c r="C21" s="259" t="s">
         <v>210</v>
       </c>
@@ -6098,7 +6080,7 @@
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="477"/>
-      <c r="B22" s="491"/>
+      <c r="B22" s="489"/>
       <c r="C22" s="259" t="s">
         <v>212</v>
       </c>
@@ -6130,7 +6112,7 @@
     </row>
     <row r="23" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A23" s="477"/>
-      <c r="B23" s="490"/>
+      <c r="B23" s="488"/>
       <c r="C23" s="259" t="s">
         <v>202</v>
       </c>
@@ -6162,7 +6144,7 @@
     </row>
     <row r="24" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A24" s="477"/>
-      <c r="B24" s="490"/>
+      <c r="B24" s="488"/>
       <c r="C24" s="259" t="s">
         <v>203</v>
       </c>
@@ -6194,7 +6176,7 @@
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A25" s="477"/>
-      <c r="B25" s="490"/>
+      <c r="B25" s="488"/>
       <c r="C25" s="259" t="s">
         <v>213</v>
       </c>
@@ -6225,7 +6207,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A26" s="489"/>
+      <c r="A26" s="487"/>
       <c r="B26" s="414"/>
       <c r="C26" s="259" t="s">
         <v>310</v>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -11,7 +11,7 @@
     <sheet name="목록" sheetId="96" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">목록!$A$1:$L$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">목록!$A$1:$L$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">목록!$1:$5</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1003,6 +1003,51 @@
   </si>
   <si>
     <t>MessageW</t>
+  </si>
+  <si>
+    <t>멘토 등록</t>
+  </si>
+  <si>
+    <t>멘티 등록</t>
+  </si>
+  <si>
+    <t>멘토 게시물 작성</t>
+  </si>
+  <si>
+    <t>멘티 게시물 작성</t>
+  </si>
+  <si>
+    <t>멘토링 신청</t>
+  </si>
+  <si>
+    <t>SW-13</t>
+  </si>
+  <si>
+    <t>멘토 게시물 등록</t>
+  </si>
+  <si>
+    <t>멘티 게시물 등록</t>
+  </si>
+  <si>
+    <t>멘토 후기 작성</t>
+  </si>
+  <si>
+    <t>SW-14</t>
+  </si>
+  <si>
+    <t>멘토링 후기 작성</t>
+  </si>
+  <si>
+    <t>사용</t>
+  </si>
+  <si>
+    <t>멘토를 희망하는 사용자가 게시물을 작성</t>
+  </si>
+  <si>
+    <t>멘티를 희망하는 사용자가 게시물을 작성</t>
+  </si>
+  <si>
+    <t>예약 내역 변경과 QNA답변완료 시 사용자에게 알림</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3931,6 +3976,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -4644,10 +4704,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A5" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -4656,7 +4716,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="36.44944594" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="40.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -5624,90 +5684,74 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000">
       <c r="A8" s="486"/>
       <c r="B8" s="488"/>
       <c r="C8" s="259" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="D8" s="259" t="s">
         <v>227</v>
       </c>
       <c r="E8" s="259" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="F8" s="261" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="G8" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="261" t="s">
-        <v>276</v>
-      </c>
+      <c r="H8" s="261"/>
       <c r="I8" s="261"/>
-      <c r="J8" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="263" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="264" t="s">
-        <v>126</v>
-      </c>
+      <c r="J8" s="264"/>
+      <c r="K8" s="263"/>
+      <c r="L8" s="264"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000">
       <c r="A9" s="486"/>
       <c r="B9" s="488"/>
       <c r="C9" s="259" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="D9" s="259" t="s">
         <v>228</v>
       </c>
       <c r="E9" s="259" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="F9" s="261" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="G9" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="261" t="s">
-        <v>277</v>
-      </c>
+      <c r="H9" s="261"/>
       <c r="I9" s="261"/>
-      <c r="J9" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="263" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="264" t="s">
-        <v>126</v>
-      </c>
+      <c r="J9" s="264"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="264"/>
     </row>
-    <row r="10" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A10" s="477"/>
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A10" s="486"/>
       <c r="B10" s="488"/>
-      <c r="C10" s="260" t="s">
-        <v>317</v>
+      <c r="C10" s="259" t="s">
+        <v>329</v>
       </c>
       <c r="D10" s="259" t="s">
         <v>229</v>
       </c>
       <c r="E10" s="259" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="F10" s="261" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="G10" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="261" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I10" s="261"/>
       <c r="J10" s="264" t="s">
@@ -5719,59 +5763,61 @@
       <c r="L10" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A11" s="477"/>
+    <row r="11" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A11" s="486"/>
       <c r="B11" s="488"/>
       <c r="C11" s="259" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="D11" s="259" t="s">
         <v>230</v>
       </c>
       <c r="E11" s="259" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="305" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="305" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="261" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="261" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I11" s="261"/>
-      <c r="J11" s="269" t="s">
+      <c r="J11" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="268" t="s">
+      <c r="K11" s="263" t="s">
         <v>64</v>
       </c>
       <c r="L11" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A12" s="477"/>
-      <c r="B12" s="490"/>
-      <c r="C12" s="259" t="s">
-        <v>292</v>
+      <c r="B12" s="488"/>
+      <c r="C12" s="260" t="s">
+        <v>317</v>
       </c>
       <c r="D12" s="259" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="259" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="285" t="s">
-        <v>295</v>
+        <v>315</v>
+      </c>
+      <c r="F12" s="261" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="261" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I12" s="261"/>
       <c r="J12" s="264" t="s">
@@ -5783,94 +5829,93 @@
       <c r="L12" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="288"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A13" s="477"/>
-      <c r="B13" s="490"/>
+      <c r="B13" s="488"/>
       <c r="C13" s="259" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="D13" s="259" t="s">
         <v>296</v>
       </c>
       <c r="E13" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="258" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="261" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="305" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="305" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="261" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="261"/>
+      <c r="J13" s="269" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="263" t="s">
+      <c r="K13" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="259" t="s">
+      <c r="L13" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="288"/>
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A14" s="477"/>
       <c r="B14" s="490"/>
       <c r="C14" s="259" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="D14" s="259" t="s">
         <v>306</v>
       </c>
       <c r="E14" s="259" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="258" t="s">
-        <v>266</v>
+        <v>293</v>
+      </c>
+      <c r="F14" s="285" t="s">
+        <v>295</v>
       </c>
       <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="261" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="261"/>
+      <c r="J14" s="264" t="s">
         <v>126</v>
       </c>
       <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="259" t="s">
+      <c r="L14" s="264" t="s">
         <v>126</v>
       </c>
       <c r="M14" s="288"/>
     </row>
-    <row r="15" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A15" s="486"/>
-      <c r="B15" s="491"/>
+    <row r="15" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A15" s="477"/>
+      <c r="B15" s="490"/>
       <c r="C15" s="259" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D15" s="259" t="s">
         <v>321</v>
       </c>
       <c r="E15" s="259" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F15" s="258" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="G15" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="261" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I15" s="259"/>
       <c r="J15" s="259" t="s">
@@ -5882,93 +5927,96 @@
       <c r="L15" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M15" s="288"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A16" s="477"/>
-      <c r="B16" s="413" t="s">
-        <v>206</v>
-      </c>
+      <c r="B16" s="490"/>
       <c r="C16" s="259" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="260" t="s">
-        <v>232</v>
+        <v>322</v>
+      </c>
+      <c r="D16" s="259" t="s">
+        <v>330</v>
       </c>
       <c r="E16" s="259" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="261" t="s">
-        <v>51</v>
+        <v>339</v>
+      </c>
+      <c r="F16" s="258" t="s">
+        <v>266</v>
       </c>
       <c r="G16" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="261" t="s">
-        <v>281</v>
-      </c>
-      <c r="I16" s="261"/>
-      <c r="J16" s="264" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259" t="s">
         <v>126</v>
       </c>
       <c r="K16" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="264" t="s">
+      <c r="L16" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M16" s="288"/>
     </row>
-    <row r="17" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A17" s="477"/>
-      <c r="B17" s="488"/>
+    <row r="17" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A17" s="486"/>
+      <c r="B17" s="491"/>
       <c r="C17" s="259" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="260" t="s">
-        <v>233</v>
+        <v>318</v>
+      </c>
+      <c r="D17" s="259" t="s">
+        <v>334</v>
       </c>
       <c r="E17" s="259" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="261" t="s">
-        <v>126</v>
+        <v>319</v>
+      </c>
+      <c r="F17" s="258" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="261" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="261"/>
-      <c r="J17" s="264" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259" t="s">
         <v>126</v>
       </c>
       <c r="K17" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="264" t="s">
+      <c r="L17" s="259" t="s">
         <v>126</v>
       </c>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A18" s="477"/>
-      <c r="B18" s="488"/>
+      <c r="B18" s="413" t="s">
+        <v>206</v>
+      </c>
       <c r="C18" s="259" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="D18" s="260" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18" s="259" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F18" s="261" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G18" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="261" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I18" s="261"/>
       <c r="J18" s="264" t="s">
@@ -5980,18 +6028,19 @@
       <c r="L18" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A19" s="477"/>
       <c r="B19" s="488"/>
       <c r="C19" s="259" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D19" s="260" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19" s="259" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F19" s="261" t="s">
         <v>126</v>
@@ -6000,7 +6049,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="261" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I19" s="261"/>
       <c r="J19" s="264" t="s">
@@ -6017,13 +6066,13 @@
       <c r="A20" s="477"/>
       <c r="B20" s="488"/>
       <c r="C20" s="259" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D20" s="260" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="259" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F20" s="261" t="s">
         <v>126</v>
@@ -6032,7 +6081,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="261" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I20" s="261"/>
       <c r="J20" s="264" t="s">
@@ -6049,13 +6098,13 @@
       <c r="A21" s="477"/>
       <c r="B21" s="488"/>
       <c r="C21" s="259" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D21" s="260" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" s="261" t="s">
         <v>126</v>
@@ -6064,7 +6113,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="261" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I21" s="261"/>
       <c r="J21" s="264" t="s">
@@ -6076,19 +6125,18 @@
       <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="477"/>
-      <c r="B22" s="489"/>
+      <c r="B22" s="488"/>
       <c r="C22" s="259" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D22" s="260" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="259" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F22" s="261" t="s">
         <v>126</v>
@@ -6097,7 +6145,7 @@
         <v>62</v>
       </c>
       <c r="H22" s="261" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I22" s="261"/>
       <c r="J22" s="264" t="s">
@@ -6114,13 +6162,13 @@
       <c r="A23" s="477"/>
       <c r="B23" s="488"/>
       <c r="C23" s="259" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D23" s="260" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E23" s="259" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F23" s="261" t="s">
         <v>126</v>
@@ -6129,7 +6177,7 @@
         <v>62</v>
       </c>
       <c r="H23" s="261" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I23" s="261"/>
       <c r="J23" s="264" t="s">
@@ -6141,27 +6189,28 @@
       <c r="L23" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A24" s="477"/>
-      <c r="B24" s="488"/>
+      <c r="B24" s="489"/>
       <c r="C24" s="259" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D24" s="260" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24" s="259" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F24" s="261" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G24" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H24" s="261" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I24" s="261"/>
       <c r="J24" s="264" t="s">
@@ -6173,27 +6222,28 @@
       <c r="L24" s="264" t="s">
         <v>126</v>
       </c>
+      <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" ht="18.000000" customHeight="1">
+    <row r="25" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A25" s="477"/>
       <c r="B25" s="488"/>
       <c r="C25" s="259" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D25" s="260" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25" s="259" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F25" s="261" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G25" s="261" t="s">
         <v>62</v>
       </c>
       <c r="H25" s="261" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I25" s="261"/>
       <c r="J25" s="264" t="s">
@@ -6206,101 +6256,137 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A26" s="487"/>
-      <c r="B26" s="414"/>
+    <row r="26" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A26" s="477"/>
+      <c r="B26" s="488"/>
       <c r="C26" s="259" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="D26" s="260" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="E26" s="259" t="s">
-        <v>312</v>
-      </c>
-      <c r="F26" s="258" t="s">
-        <v>51</v>
+        <v>263</v>
+      </c>
+      <c r="F26" s="261" t="s">
+        <v>60</v>
       </c>
       <c r="G26" s="261" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H26" s="261" t="s">
-        <v>313</v>
-      </c>
-      <c r="I26" s="259"/>
-      <c r="J26" s="259" t="s">
+        <v>290</v>
+      </c>
+      <c r="I26" s="261"/>
+      <c r="J26" s="264" t="s">
         <v>126</v>
       </c>
       <c r="K26" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="259" t="s">
+      <c r="L26" s="264" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A27" s="470" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="338" t="s">
-        <v>207</v>
-      </c>
+      <c r="A27" s="477"/>
+      <c r="B27" s="488"/>
       <c r="C27" s="259" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="259" t="s">
-        <v>321</v>
+        <v>213</v>
+      </c>
+      <c r="D27" s="260" t="s">
+        <v>241</v>
       </c>
       <c r="E27" s="259" t="s">
-        <v>307</v>
-      </c>
-      <c r="F27" s="258" t="s">
-        <v>298</v>
+        <v>264</v>
+      </c>
+      <c r="F27" s="261" t="s">
+        <v>125</v>
       </c>
       <c r="G27" s="261" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H27" s="261" t="s">
-        <v>308</v>
-      </c>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259" t="s">
+        <v>291</v>
+      </c>
+      <c r="I27" s="261"/>
+      <c r="J27" s="264" t="s">
         <v>126</v>
       </c>
       <c r="K27" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="259" t="s">
+      <c r="L27" s="264" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A28" s="387"/>
-      <c r="B28" s="388"/>
-      <c r="C28" s="388"/>
-      <c r="D28" s="388"/>
-      <c r="E28" s="388"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="392"/>
-      <c r="J28" s="392"/>
-      <c r="K28" s="392"/>
-      <c r="L28" s="23"/>
+      <c r="A28" s="487"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="259" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="260" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="259" t="s">
+        <v>312</v>
+      </c>
+      <c r="F28" s="258" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="261" t="s">
+        <v>313</v>
+      </c>
+      <c r="I28" s="259"/>
+      <c r="J28" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="259" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A29" s="387"/>
-      <c r="B29" s="388"/>
-      <c r="C29" s="388"/>
-      <c r="D29" s="388"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="390"/>
-      <c r="G29" s="390"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="392"/>
-      <c r="J29" s="392"/>
-      <c r="K29" s="392"/>
-      <c r="L29" s="23"/>
+      <c r="A29" s="335" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="338" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="259" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="259" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="259" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="258" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="261" t="s">
+        <v>308</v>
+      </c>
+      <c r="I29" s="259"/>
+      <c r="J29" s="259" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="259" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A30" s="387"/>
@@ -6373,19 +6459,57 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="18.000000" customHeight="1">
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="A35" s="387"/>
+      <c r="B35" s="388"/>
+      <c r="C35" s="388"/>
+      <c r="D35" s="388"/>
+      <c r="E35" s="388"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="390"/>
+      <c r="H35" s="388"/>
+      <c r="I35" s="392"/>
+      <c r="J35" s="392"/>
+      <c r="K35" s="392"/>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A36" s="387"/>
+      <c r="B36" s="388"/>
+      <c r="C36" s="388"/>
+      <c r="D36" s="388"/>
+      <c r="E36" s="388"/>
+      <c r="F36" s="390"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="392"/>
+      <c r="J36" s="392"/>
+      <c r="K36" s="392"/>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A26"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23 K28:K34 K24:K25 K5:K12 K16:K21 K4 K22 K26 K27 K13 K14 K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25 K30:K36 K26:K27 K5:K14 K18:K23 K4 K24 K28 K29 K15 K16 K17">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1048,6 +1048,39 @@
   </si>
   <si>
     <t>예약 내역 변경과 QNA답변완료 시 사용자에게 알림</t>
+  </si>
+  <si>
+    <t>4월5주차</t>
+  </si>
+  <si>
+    <t>5월1주차</t>
+  </si>
+  <si>
+    <t>5월2주차</t>
+  </si>
+  <si>
+    <t>5월3주차</t>
+  </si>
+  <si>
+    <t>MentoregisterW</t>
+  </si>
+  <si>
+    <t>MentiregisterW</t>
+  </si>
+  <si>
+    <t>6월3주차</t>
+  </si>
+  <si>
+    <t>5월4주차</t>
+  </si>
+  <si>
+    <t>6월1주차</t>
+  </si>
+  <si>
+    <t>6월2주차</t>
+  </si>
+  <si>
+    <t>6월 2주차</t>
   </si>
 </sst>
 </file>
@@ -4081,7 +4114,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13970" y="10160"/>
+          <a:off x="19685" y="13970"/>
           <a:ext cx="9528175" cy="5786755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4234,7 +4267,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97155" y="2633345"/>
+          <a:off x="102870" y="2637155"/>
           <a:ext cx="9324975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line"/>
@@ -4309,7 +4342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5671820" y="4554855"/>
+          <a:off x="5677535" y="4558665"/>
           <a:ext cx="3905250" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4706,8 +4739,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5577,7 +5610,9 @@
       <c r="H4" s="261" t="s">
         <v>272</v>
       </c>
-      <c r="I4" s="261"/>
+      <c r="I4" s="261" t="s">
+        <v>341</v>
+      </c>
       <c r="J4" s="264" t="s">
         <v>126</v>
       </c>
@@ -5609,7 +5644,9 @@
       <c r="H5" s="261" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="261"/>
+      <c r="I5" s="261" t="s">
+        <v>341</v>
+      </c>
       <c r="J5" s="264" t="s">
         <v>126</v>
       </c>
@@ -5641,7 +5678,9 @@
       <c r="H6" s="261" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="261"/>
+      <c r="I6" s="261" t="s">
+        <v>342</v>
+      </c>
       <c r="J6" s="264" t="s">
         <v>126</v>
       </c>
@@ -5673,7 +5712,9 @@
       <c r="H7" s="261" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="261"/>
+      <c r="I7" s="261" t="s">
+        <v>343</v>
+      </c>
       <c r="J7" s="264" t="s">
         <v>126</v>
       </c>
@@ -5702,11 +5743,21 @@
       <c r="G8" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="264"/>
+      <c r="H8" s="261" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="261" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="264" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="264" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000">
       <c r="A9" s="486"/>
@@ -5726,11 +5777,21 @@
       <c r="G9" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="264"/>
+      <c r="H9" s="261" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9" s="261" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" s="264" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="264" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A10" s="486"/>
@@ -5753,7 +5814,9 @@
       <c r="H10" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="261"/>
+      <c r="I10" s="261" t="s">
+        <v>342</v>
+      </c>
       <c r="J10" s="264" t="s">
         <v>126</v>
       </c>
@@ -5763,7 +5826,6 @@
       <c r="L10" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A11" s="486"/>
@@ -5786,7 +5848,9 @@
       <c r="H11" s="261" t="s">
         <v>277</v>
       </c>
-      <c r="I11" s="261"/>
+      <c r="I11" s="261" t="s">
+        <v>346</v>
+      </c>
       <c r="J11" s="264" t="s">
         <v>126</v>
       </c>
@@ -5796,7 +5860,6 @@
       <c r="L11" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A12" s="477"/>
@@ -5819,7 +5882,9 @@
       <c r="H12" s="261" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="261"/>
+      <c r="I12" s="261" t="s">
+        <v>347</v>
+      </c>
       <c r="J12" s="264" t="s">
         <v>126</v>
       </c>
@@ -5829,7 +5894,6 @@
       <c r="L12" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A13" s="477"/>
@@ -5852,7 +5916,9 @@
       <c r="H13" s="261" t="s">
         <v>279</v>
       </c>
-      <c r="I13" s="261"/>
+      <c r="I13" s="261" t="s">
+        <v>343</v>
+      </c>
       <c r="J13" s="269" t="s">
         <v>126</v>
       </c>
@@ -5884,7 +5950,9 @@
       <c r="H14" s="261" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="261"/>
+      <c r="I14" s="261" t="s">
+        <v>349</v>
+      </c>
       <c r="J14" s="264" t="s">
         <v>126</v>
       </c>
@@ -5917,7 +5985,9 @@
       <c r="H15" s="261" t="s">
         <v>316</v>
       </c>
-      <c r="I15" s="259"/>
+      <c r="I15" s="261" t="s">
+        <v>349</v>
+      </c>
       <c r="J15" s="259" t="s">
         <v>126</v>
       </c>
@@ -5950,7 +6020,9 @@
       <c r="H16" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="I16" s="259"/>
+      <c r="I16" s="261" t="s">
+        <v>348</v>
+      </c>
       <c r="J16" s="259" t="s">
         <v>126</v>
       </c>
@@ -5983,7 +6055,9 @@
       <c r="H17" s="261" t="s">
         <v>320</v>
       </c>
-      <c r="I17" s="259"/>
+      <c r="I17" s="261" t="s">
+        <v>348</v>
+      </c>
       <c r="J17" s="259" t="s">
         <v>126</v>
       </c>
@@ -5993,7 +6067,6 @@
       <c r="L17" s="259" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A18" s="477"/>
@@ -6018,7 +6091,9 @@
       <c r="H18" s="261" t="s">
         <v>281</v>
       </c>
-      <c r="I18" s="261"/>
+      <c r="I18" s="261" t="s">
+        <v>340</v>
+      </c>
       <c r="J18" s="264" t="s">
         <v>126</v>
       </c>
@@ -6028,7 +6103,6 @@
       <c r="L18" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A19" s="477"/>
@@ -6051,7 +6125,9 @@
       <c r="H19" s="261" t="s">
         <v>282</v>
       </c>
-      <c r="I19" s="261"/>
+      <c r="I19" s="261" t="s">
+        <v>341</v>
+      </c>
       <c r="J19" s="264" t="s">
         <v>126</v>
       </c>
@@ -6083,7 +6159,9 @@
       <c r="H20" s="261" t="s">
         <v>283</v>
       </c>
-      <c r="I20" s="261"/>
+      <c r="I20" s="261" t="s">
+        <v>341</v>
+      </c>
       <c r="J20" s="264" t="s">
         <v>126</v>
       </c>
@@ -6115,7 +6193,9 @@
       <c r="H21" s="261" t="s">
         <v>284</v>
       </c>
-      <c r="I21" s="261"/>
+      <c r="I21" s="261" t="s">
+        <v>342</v>
+      </c>
       <c r="J21" s="264" t="s">
         <v>126</v>
       </c>
@@ -6147,7 +6227,9 @@
       <c r="H22" s="261" t="s">
         <v>285</v>
       </c>
-      <c r="I22" s="261"/>
+      <c r="I22" s="261" t="s">
+        <v>342</v>
+      </c>
       <c r="J22" s="264" t="s">
         <v>126</v>
       </c>
@@ -6179,7 +6261,9 @@
       <c r="H23" s="261" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="261"/>
+      <c r="I23" s="261" t="s">
+        <v>347</v>
+      </c>
       <c r="J23" s="264" t="s">
         <v>126</v>
       </c>
@@ -6212,7 +6296,9 @@
       <c r="H24" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="I24" s="261"/>
+      <c r="I24" s="261" t="s">
+        <v>347</v>
+      </c>
       <c r="J24" s="264" t="s">
         <v>126</v>
       </c>
@@ -6222,7 +6308,6 @@
       <c r="L24" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A25" s="477"/>
@@ -6245,7 +6330,9 @@
       <c r="H25" s="261" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="261"/>
+      <c r="I25" s="261" t="s">
+        <v>347</v>
+      </c>
       <c r="J25" s="264" t="s">
         <v>126</v>
       </c>
@@ -6277,7 +6364,9 @@
       <c r="H26" s="261" t="s">
         <v>290</v>
       </c>
-      <c r="I26" s="261"/>
+      <c r="I26" s="261" t="s">
+        <v>347</v>
+      </c>
       <c r="J26" s="264" t="s">
         <v>126</v>
       </c>
@@ -6309,7 +6398,9 @@
       <c r="H27" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="I27" s="261"/>
+      <c r="I27" s="261" t="s">
+        <v>348</v>
+      </c>
       <c r="J27" s="264" t="s">
         <v>126</v>
       </c>
@@ -6341,7 +6432,9 @@
       <c r="H28" s="261" t="s">
         <v>313</v>
       </c>
-      <c r="I28" s="259"/>
+      <c r="I28" s="261" t="s">
+        <v>350</v>
+      </c>
       <c r="J28" s="259" t="s">
         <v>126</v>
       </c>
@@ -6377,7 +6470,9 @@
       <c r="H29" s="261" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="259"/>
+      <c r="I29" s="261" t="s">
+        <v>348</v>
+      </c>
       <c r="J29" s="259" t="s">
         <v>126</v>
       </c>
@@ -6487,18 +6582,8 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="18.000000" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6509,7 +6594,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25 K30:K36 K26:K27 K5:K14 K18:K23 K4 K24 K28 K29 K15 K16 K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25 K30:K36 K26:K27 K5:K7 K10:K14 K18:K23 K4 K24 K28 K29 K15 K16 K17 K8:K9">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -4739,8 +4739,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A7" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -6309,7 +6309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="20.000000" customHeight="1">
+    <row r="25" spans="1:13">
       <c r="A25" s="477"/>
       <c r="B25" s="488"/>
       <c r="C25" s="259" t="s">

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.104.121.46349"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="101" r:id="rId1"/>
-    <sheet name="목록" sheetId="96" r:id="rId2"/>
+    <sheet name="변경 전" sheetId="96" r:id="rId2"/>
+    <sheet name="변경 후" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">목록!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'변경 전'!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'변경 후'!$A$1:$L$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$K$30</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">목록!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'변경 전'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -26,8 +28,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1081,6 +1090,99 @@
   </si>
   <si>
     <t>6월 2주차</t>
+  </si>
+  <si>
+    <t>웹 로그인</t>
+  </si>
+  <si>
+    <t>메타버스 로그인</t>
+  </si>
+  <si>
+    <t>멘토링</t>
+  </si>
+  <si>
+    <t>학교체험</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>MA-1</t>
+  </si>
+  <si>
+    <t>MA-2</t>
+  </si>
+  <si>
+    <t>MA-3</t>
+  </si>
+  <si>
+    <t>MA-4</t>
+  </si>
+  <si>
+    <t>MA-5</t>
+  </si>
+  <si>
+    <t>MA-6</t>
+  </si>
+  <si>
+    <t>MA-7</t>
+  </si>
+  <si>
+    <t>MA-8</t>
+  </si>
+  <si>
+    <t>MB-1</t>
+  </si>
+  <si>
+    <t>MB-2</t>
+  </si>
+  <si>
+    <t>MB-3</t>
+  </si>
+  <si>
+    <t>MB-4</t>
+  </si>
+  <si>
+    <t>MB-5</t>
+  </si>
+  <si>
+    <t>MB-6</t>
+  </si>
+  <si>
+    <t>MB-7</t>
+  </si>
+  <si>
+    <t>MC-1</t>
+  </si>
+  <si>
+    <t>MC-2</t>
+  </si>
+  <si>
+    <t>MC-3</t>
+  </si>
+  <si>
+    <t>MC-4</t>
+  </si>
+  <si>
+    <t>MC-5</t>
+  </si>
+  <si>
+    <t>MC-6</t>
+  </si>
+  <si>
+    <t>MC-7</t>
+  </si>
+  <si>
+    <t>MC-8</t>
+  </si>
+  <si>
+    <t>MC-9</t>
+  </si>
+  <si>
+    <t>MD-1</t>
+  </si>
+  <si>
+    <t>MD-2</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1751,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1872,6 +1974,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2569,7 +2683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="536">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4024,6 +4138,123 @@
     </xf>
     <xf numFmtId="0" fontId="80" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="38" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="38" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="39" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="39" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -4114,7 +4345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19685" y="13970"/>
+          <a:off x="13970" y="10160"/>
           <a:ext cx="9528175" cy="5786755"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4267,7 +4498,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="102870" y="2637155"/>
+          <a:off x="97155" y="2633345"/>
           <a:ext cx="9324975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line"/>
@@ -4342,7 +4573,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5677535" y="4558665"/>
+          <a:off x="5671820" y="4554855"/>
           <a:ext cx="3905250" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -4739,8 +4970,8 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A28"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -5589,8 +5820,8 @@
       <c r="A4" s="409" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="413" t="s">
-        <v>207</v>
+      <c r="B4" s="415" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="259" t="s">
         <v>71</v>
@@ -5625,7 +5856,7 @@
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A5" s="486"/>
-      <c r="B5" s="488"/>
+      <c r="B5" s="493"/>
       <c r="C5" s="259" t="s">
         <v>35</v>
       </c>
@@ -5659,7 +5890,7 @@
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A6" s="486"/>
-      <c r="B6" s="488"/>
+      <c r="B6" s="493"/>
       <c r="C6" s="259" t="s">
         <v>193</v>
       </c>
@@ -5693,7 +5924,7 @@
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A7" s="486"/>
-      <c r="B7" s="488"/>
+      <c r="B7" s="493"/>
       <c r="C7" s="259" t="s">
         <v>195</v>
       </c>
@@ -5727,7 +5958,7 @@
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000">
       <c r="A8" s="486"/>
-      <c r="B8" s="488"/>
+      <c r="B8" s="493"/>
       <c r="C8" s="259" t="s">
         <v>331</v>
       </c>
@@ -5761,7 +5992,7 @@
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000">
       <c r="A9" s="486"/>
-      <c r="B9" s="488"/>
+      <c r="B9" s="493"/>
       <c r="C9" s="259" t="s">
         <v>332</v>
       </c>
@@ -5795,7 +6026,7 @@
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A10" s="486"/>
-      <c r="B10" s="488"/>
+      <c r="B10" s="493"/>
       <c r="C10" s="259" t="s">
         <v>329</v>
       </c>
@@ -5829,7 +6060,7 @@
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A11" s="486"/>
-      <c r="B11" s="488"/>
+      <c r="B11" s="493"/>
       <c r="C11" s="259" t="s">
         <v>335</v>
       </c>
@@ -5863,7 +6094,7 @@
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A12" s="477"/>
-      <c r="B12" s="488"/>
+      <c r="B12" s="493"/>
       <c r="C12" s="260" t="s">
         <v>317</v>
       </c>
@@ -5897,7 +6128,7 @@
     </row>
     <row r="13" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A13" s="477"/>
-      <c r="B13" s="488"/>
+      <c r="B13" s="493"/>
       <c r="C13" s="259" t="s">
         <v>198</v>
       </c>
@@ -5931,7 +6162,7 @@
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A14" s="477"/>
-      <c r="B14" s="490"/>
+      <c r="B14" s="494"/>
       <c r="C14" s="259" t="s">
         <v>292</v>
       </c>
@@ -5966,7 +6197,7 @@
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A15" s="477"/>
-      <c r="B15" s="490"/>
+      <c r="B15" s="494"/>
       <c r="C15" s="259" t="s">
         <v>297</v>
       </c>
@@ -6001,7 +6232,7 @@
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A16" s="477"/>
-      <c r="B16" s="490"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="259" t="s">
         <v>322</v>
       </c>
@@ -6036,7 +6267,7 @@
     </row>
     <row r="17" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
       <c r="A17" s="486"/>
-      <c r="B17" s="491"/>
+      <c r="B17" s="495"/>
       <c r="C17" s="259" t="s">
         <v>318</v>
       </c>
@@ -6070,7 +6301,7 @@
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A18" s="477"/>
-      <c r="B18" s="413" t="s">
+      <c r="B18" s="415" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="259" t="s">
@@ -6106,7 +6337,7 @@
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A19" s="477"/>
-      <c r="B19" s="488"/>
+      <c r="B19" s="493"/>
       <c r="C19" s="259" t="s">
         <v>208</v>
       </c>
@@ -6140,7 +6371,7 @@
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A20" s="477"/>
-      <c r="B20" s="488"/>
+      <c r="B20" s="493"/>
       <c r="C20" s="259" t="s">
         <v>209</v>
       </c>
@@ -6174,7 +6405,7 @@
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A21" s="477"/>
-      <c r="B21" s="488"/>
+      <c r="B21" s="493"/>
       <c r="C21" s="259" t="s">
         <v>201</v>
       </c>
@@ -6208,7 +6439,7 @@
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="477"/>
-      <c r="B22" s="488"/>
+      <c r="B22" s="493"/>
       <c r="C22" s="259" t="s">
         <v>204</v>
       </c>
@@ -6242,7 +6473,7 @@
     </row>
     <row r="23" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A23" s="477"/>
-      <c r="B23" s="488"/>
+      <c r="B23" s="493"/>
       <c r="C23" s="259" t="s">
         <v>210</v>
       </c>
@@ -6277,7 +6508,7 @@
     </row>
     <row r="24" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A24" s="477"/>
-      <c r="B24" s="489"/>
+      <c r="B24" s="496"/>
       <c r="C24" s="259" t="s">
         <v>212</v>
       </c>
@@ -6311,7 +6542,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="477"/>
-      <c r="B25" s="488"/>
+      <c r="B25" s="493"/>
       <c r="C25" s="259" t="s">
         <v>202</v>
       </c>
@@ -6345,7 +6576,7 @@
     </row>
     <row r="26" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A26" s="477"/>
-      <c r="B26" s="488"/>
+      <c r="B26" s="493"/>
       <c r="C26" s="259" t="s">
         <v>203</v>
       </c>
@@ -6379,7 +6610,7 @@
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A27" s="477"/>
-      <c r="B27" s="488"/>
+      <c r="B27" s="493"/>
       <c r="C27" s="259" t="s">
         <v>213</v>
       </c>
@@ -6413,7 +6644,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A28" s="487"/>
-      <c r="B28" s="414"/>
+      <c r="B28" s="418"/>
       <c r="C28" s="259" t="s">
         <v>310</v>
       </c>
@@ -6586,11 +6817,9 @@
       <c r="E37" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A4:A28"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6606,4 +6835,1831 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="1" max="1" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="40.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="40" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="40" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="256" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="257" max="257" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="258" max="258" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="259" max="259" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="260" max="260" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="261" max="261" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="262" max="263" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="264" max="264" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="265" max="265" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="266" max="266" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="267" max="267" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="268" max="268" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="269" max="512" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="513" max="513" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="514" max="514" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="515" max="515" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="516" max="516" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="517" max="517" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="518" max="519" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="520" max="520" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="521" max="521" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="522" max="522" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="523" max="523" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="524" max="524" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="525" max="768" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="769" max="769" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="770" max="770" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="771" max="771" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="772" max="772" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="773" max="773" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="774" max="775" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="776" max="776" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="777" max="777" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="778" max="778" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="779" max="779" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="780" max="780" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="781" max="1024" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1025" max="1025" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1026" max="1026" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="1027" max="1027" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1028" max="1028" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="1029" max="1029" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="1030" max="1031" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1032" max="1032" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="1033" max="1033" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1034" max="1034" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1035" max="1035" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="1036" max="1036" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1037" max="1280" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1281" max="1281" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1282" max="1282" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="1283" max="1283" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1284" max="1284" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="1285" max="1285" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="1286" max="1287" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1288" max="1288" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="1289" max="1289" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1290" max="1290" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1291" max="1291" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="1292" max="1292" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1293" max="1536" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1537" max="1537" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1538" max="1538" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="1539" max="1539" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1540" max="1540" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="1541" max="1541" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="1542" max="1543" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1544" max="1544" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="1545" max="1545" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1546" max="1546" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1547" max="1547" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="1548" max="1548" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1549" max="1792" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1793" max="1793" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1794" max="1794" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="1795" max="1795" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1796" max="1796" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="1797" max="1797" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="1798" max="1799" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="1800" max="1800" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="1801" max="1801" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1802" max="1802" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1803" max="1803" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="1804" max="1804" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="1805" max="2048" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2049" max="2049" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2050" max="2050" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="2051" max="2051" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2052" max="2052" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="2053" max="2053" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="2054" max="2055" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2056" max="2056" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="2057" max="2057" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2058" max="2058" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2059" max="2059" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="2060" max="2060" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2061" max="2304" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2305" max="2305" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2306" max="2306" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="2307" max="2307" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2308" max="2308" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="2309" max="2309" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="2310" max="2311" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2312" max="2312" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="2313" max="2313" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2314" max="2314" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2315" max="2315" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="2316" max="2316" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2317" max="2560" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2561" max="2561" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2562" max="2562" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="2563" max="2563" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2564" max="2564" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="2565" max="2565" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="2566" max="2567" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2568" max="2568" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="2569" max="2569" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2570" max="2570" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2571" max="2571" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="2572" max="2572" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2573" max="2816" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2817" max="2817" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2818" max="2818" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="2819" max="2819" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2820" max="2820" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="2821" max="2821" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="2822" max="2823" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="2824" max="2824" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="2825" max="2825" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2826" max="2826" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2827" max="2827" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="2828" max="2828" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="2829" max="3072" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3073" max="3073" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3074" max="3074" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="3075" max="3075" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3076" max="3076" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="3077" max="3077" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="3078" max="3079" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3080" max="3080" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="3081" max="3081" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3082" max="3082" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3083" max="3083" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="3084" max="3084" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3085" max="3328" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3329" max="3329" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3330" max="3330" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="3331" max="3331" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3332" max="3332" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="3333" max="3333" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="3334" max="3335" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3336" max="3336" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="3337" max="3337" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3338" max="3338" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3339" max="3339" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="3340" max="3340" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3341" max="3584" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3585" max="3585" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3586" max="3586" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="3587" max="3587" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3588" max="3588" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="3589" max="3589" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="3590" max="3591" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3592" max="3592" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="3593" max="3593" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3594" max="3594" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3595" max="3595" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="3596" max="3596" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3597" max="3840" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3841" max="3841" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3842" max="3842" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="3843" max="3843" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3844" max="3844" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="3845" max="3845" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="3846" max="3847" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="3848" max="3848" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="3849" max="3849" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3850" max="3850" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3851" max="3851" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="3852" max="3852" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3853" max="4096" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4097" max="4097" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4098" max="4098" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="4099" max="4099" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4100" max="4100" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4101" max="4101" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="4102" max="4103" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4104" max="4104" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="4105" max="4105" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4106" max="4106" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4107" max="4107" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="4108" max="4108" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4109" max="4352" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4353" max="4353" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4354" max="4354" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="4355" max="4355" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4356" max="4356" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4357" max="4357" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="4358" max="4359" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4360" max="4360" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="4361" max="4361" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4362" max="4362" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4363" max="4363" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="4364" max="4364" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4365" max="4608" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4609" max="4609" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4610" max="4610" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="4611" max="4611" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4612" max="4612" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4613" max="4613" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="4614" max="4615" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4616" max="4616" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="4617" max="4617" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4618" max="4618" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4619" max="4619" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="4620" max="4620" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4621" max="4864" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4865" max="4865" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4866" max="4866" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="4867" max="4867" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4868" max="4868" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4869" max="4869" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="4870" max="4871" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4872" max="4872" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="4873" max="4873" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4874" max="4874" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4875" max="4875" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="4876" max="4876" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="4877" max="5120" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5121" max="5121" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5122" max="5122" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="5123" max="5123" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5124" max="5124" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="5125" max="5125" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5126" max="5127" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5128" max="5128" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="5129" max="5129" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5130" max="5130" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5131" max="5131" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="5132" max="5132" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5133" max="5376" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5377" max="5377" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5378" max="5378" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="5379" max="5379" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5380" max="5380" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="5381" max="5381" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5382" max="5383" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5384" max="5384" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="5385" max="5385" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5386" max="5386" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5387" max="5387" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="5388" max="5388" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5389" max="5632" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5633" max="5633" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5634" max="5634" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="5635" max="5635" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5636" max="5636" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="5637" max="5637" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5638" max="5639" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5640" max="5640" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="5641" max="5641" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5642" max="5642" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5643" max="5643" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="5644" max="5644" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5645" max="5888" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5889" max="5889" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5890" max="5890" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="5891" max="5891" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5892" max="5892" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="5893" max="5893" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="5894" max="5895" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5896" max="5896" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="5897" max="5897" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5898" max="5898" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5899" max="5899" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="5900" max="5900" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="5901" max="6144" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6145" max="6145" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6146" max="6146" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="6147" max="6147" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6148" max="6148" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="6149" max="6149" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6150" max="6151" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6152" max="6152" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="6153" max="6153" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6154" max="6154" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6155" max="6155" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="6156" max="6156" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6157" max="6400" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6401" max="6401" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6402" max="6402" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="6403" max="6403" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6404" max="6404" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="6405" max="6405" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6406" max="6407" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6408" max="6408" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="6409" max="6409" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6410" max="6410" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6411" max="6411" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="6412" max="6412" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6413" max="6656" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6657" max="6657" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6658" max="6658" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="6659" max="6659" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6660" max="6660" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="6661" max="6661" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6662" max="6663" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6664" max="6664" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="6665" max="6665" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6666" max="6666" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6667" max="6667" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="6668" max="6668" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6669" max="6912" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6913" max="6913" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6914" max="6914" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="6915" max="6915" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6916" max="6916" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="6917" max="6917" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6918" max="6919" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="6920" max="6920" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="6921" max="6921" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6922" max="6922" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6923" max="6923" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="6924" max="6924" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="6925" max="7168" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7169" max="7169" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7170" max="7170" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="7171" max="7171" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7172" max="7172" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="7173" max="7173" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="7174" max="7175" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7176" max="7176" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="7177" max="7177" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7178" max="7178" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7179" max="7179" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="7180" max="7180" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7181" max="7424" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7425" max="7425" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7426" max="7426" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="7427" max="7427" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7428" max="7428" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="7429" max="7429" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="7430" max="7431" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7432" max="7432" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="7433" max="7433" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7434" max="7434" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7435" max="7435" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="7436" max="7436" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7437" max="7680" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7681" max="7681" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7682" max="7682" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="7683" max="7683" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7684" max="7684" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="7685" max="7685" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="7686" max="7687" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7688" max="7688" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="7689" max="7689" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7690" max="7690" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7691" max="7691" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="7692" max="7692" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7693" max="7936" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7937" max="7937" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7938" max="7938" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="7939" max="7939" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7940" max="7940" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="7941" max="7941" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="7942" max="7943" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7944" max="7944" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="7945" max="7945" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7946" max="7946" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7947" max="7947" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="7948" max="7948" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="7949" max="8192" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8193" max="8193" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8194" max="8194" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="8195" max="8195" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8196" max="8196" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="8197" max="8197" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="8198" max="8199" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8200" max="8200" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="8201" max="8201" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8202" max="8202" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8203" max="8203" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="8204" max="8204" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8205" max="8448" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8449" max="8449" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8450" max="8450" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="8451" max="8451" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8452" max="8452" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="8453" max="8453" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="8454" max="8455" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8456" max="8456" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="8457" max="8457" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8458" max="8458" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8459" max="8459" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="8460" max="8460" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8461" max="8704" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8705" max="8705" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8706" max="8706" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="8707" max="8707" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8708" max="8708" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="8709" max="8709" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="8710" max="8711" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8712" max="8712" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="8713" max="8713" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8714" max="8714" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8715" max="8715" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="8716" max="8716" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8717" max="8960" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8961" max="8961" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8962" max="8962" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="8963" max="8963" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8964" max="8964" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="8965" max="8965" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="8966" max="8967" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="8968" max="8968" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="8969" max="8969" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8970" max="8970" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8971" max="8971" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="8972" max="8972" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="8973" max="9216" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9217" max="9217" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9218" max="9218" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="9219" max="9219" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9220" max="9220" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9221" max="9221" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="9222" max="9223" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9224" max="9224" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="9225" max="9225" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9226" max="9226" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9227" max="9227" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="9228" max="9228" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9229" max="9472" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9473" max="9473" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9474" max="9474" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="9475" max="9475" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9476" max="9476" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9477" max="9477" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="9478" max="9479" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9480" max="9480" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="9481" max="9481" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9482" max="9482" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9483" max="9483" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="9484" max="9484" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9485" max="9728" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9729" max="9729" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9730" max="9730" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="9731" max="9731" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9732" max="9732" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9733" max="9733" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="9734" max="9735" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9736" max="9736" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="9737" max="9737" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9738" max="9738" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9739" max="9739" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="9740" max="9740" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9741" max="9984" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9985" max="9985" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9986" max="9986" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="9987" max="9987" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9988" max="9988" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="9989" max="9989" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="9990" max="9991" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9992" max="9992" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="9993" max="9993" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9994" max="9994" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9995" max="9995" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="9996" max="9996" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="9997" max="10240" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10241" max="10241" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10242" max="10242" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="10243" max="10243" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10244" max="10244" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="10245" max="10245" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="10246" max="10247" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10248" max="10248" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="10249" max="10249" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10250" max="10250" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10251" max="10251" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="10252" max="10252" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10253" max="10496" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10497" max="10497" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10498" max="10498" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="10499" max="10499" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10500" max="10500" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="10501" max="10501" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="10502" max="10503" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10504" max="10504" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="10505" max="10505" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10506" max="10506" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10507" max="10507" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="10508" max="10508" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10509" max="10752" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10753" max="10753" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10754" max="10754" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="10755" max="10755" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10756" max="10756" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="10757" max="10757" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="10758" max="10759" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="10760" max="10760" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="10761" max="10761" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10762" max="10762" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10763" max="10763" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="10764" max="10764" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="10765" max="11008" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11009" max="11009" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11010" max="11010" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="11011" max="11011" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11012" max="11012" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="11013" max="11013" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="11014" max="11015" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11016" max="11016" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="11017" max="11017" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11018" max="11018" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11019" max="11019" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="11020" max="11020" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11021" max="11264" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11265" max="11265" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11266" max="11266" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="11267" max="11267" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11268" max="11268" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="11269" max="11269" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="11270" max="11271" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11272" max="11272" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="11273" max="11273" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11274" max="11274" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11275" max="11275" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="11276" max="11276" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11277" max="11520" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11521" max="11521" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11522" max="11522" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="11523" max="11523" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11524" max="11524" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="11525" max="11525" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="11526" max="11527" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11528" max="11528" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="11529" max="11529" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11530" max="11530" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11531" max="11531" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="11532" max="11532" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11533" max="11776" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11777" max="11777" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11778" max="11778" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="11779" max="11779" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11780" max="11780" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="11781" max="11781" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="11782" max="11783" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="11784" max="11784" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="11785" max="11785" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11786" max="11786" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11787" max="11787" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="11788" max="11788" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="11789" max="12032" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12033" max="12033" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12034" max="12034" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="12035" max="12035" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12036" max="12036" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="12037" max="12037" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="12038" max="12039" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12040" max="12040" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="12041" max="12041" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12042" max="12042" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12043" max="12043" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="12044" max="12044" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12045" max="12288" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12289" max="12289" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12290" max="12290" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="12291" max="12291" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12292" max="12292" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="12293" max="12293" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="12294" max="12295" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12296" max="12296" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="12297" max="12297" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12298" max="12298" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12299" max="12299" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="12300" max="12300" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12301" max="12544" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12545" max="12545" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12546" max="12546" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="12547" max="12547" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12548" max="12548" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="12549" max="12549" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="12550" max="12551" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12552" max="12552" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="12553" max="12553" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12554" max="12554" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12555" max="12555" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="12556" max="12556" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12557" max="12800" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12801" max="12801" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12802" max="12802" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="12803" max="12803" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12804" max="12804" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="12805" max="12805" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="12806" max="12807" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="12808" max="12808" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="12809" max="12809" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12810" max="12810" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12811" max="12811" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="12812" max="12812" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="12813" max="13056" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13057" max="13057" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13058" max="13058" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="13059" max="13059" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13060" max="13060" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13061" max="13061" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="13062" max="13063" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13064" max="13064" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="13065" max="13065" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13066" max="13066" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13067" max="13067" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="13068" max="13068" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13069" max="13312" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13313" max="13313" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13314" max="13314" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="13315" max="13315" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13316" max="13316" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13317" max="13317" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="13318" max="13319" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13320" max="13320" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="13321" max="13321" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13322" max="13322" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13323" max="13323" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="13324" max="13324" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13325" max="13568" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13569" max="13569" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13570" max="13570" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="13571" max="13571" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13572" max="13572" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13573" max="13573" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="13574" max="13575" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13576" max="13576" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="13577" max="13577" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13578" max="13578" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13579" max="13579" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="13580" max="13580" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13581" max="13824" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13825" max="13825" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13826" max="13826" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="13827" max="13827" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13828" max="13828" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13829" max="13829" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="13830" max="13831" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="13832" max="13832" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="13833" max="13833" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13834" max="13834" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13835" max="13835" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="13836" max="13836" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="13837" max="14080" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14081" max="14081" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14082" max="14082" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="14083" max="14083" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14084" max="14084" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="14085" max="14085" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="14086" max="14087" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14088" max="14088" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="14089" max="14089" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14090" max="14090" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14091" max="14091" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="14092" max="14092" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14093" max="14336" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14337" max="14337" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14338" max="14338" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="14339" max="14339" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14340" max="14340" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="14341" max="14341" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="14342" max="14343" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14344" max="14344" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="14345" max="14345" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14346" max="14346" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14347" max="14347" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="14348" max="14348" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14349" max="14592" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14593" max="14593" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14594" max="14594" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="14595" max="14595" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14596" max="14596" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="14597" max="14597" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="14598" max="14599" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14600" max="14600" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="14601" max="14601" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14602" max="14602" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14603" max="14603" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="14604" max="14604" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14605" max="14848" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14849" max="14849" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14850" max="14850" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="14851" max="14851" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14852" max="14852" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="14853" max="14853" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="14854" max="14855" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="14856" max="14856" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="14857" max="14857" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14858" max="14858" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14859" max="14859" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="14860" max="14860" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="14861" max="15104" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15105" max="15105" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15106" max="15106" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="15107" max="15107" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15108" max="15108" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="15109" max="15109" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="15110" max="15111" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15112" max="15112" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="15113" max="15113" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15114" max="15114" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15115" max="15115" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="15116" max="15116" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15117" max="15360" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15361" max="15361" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15362" max="15362" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="15363" max="15363" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15364" max="15364" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="15365" max="15365" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="15366" max="15367" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15368" max="15368" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="15369" max="15369" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15370" max="15370" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15371" max="15371" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="15372" max="15372" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15373" max="15616" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15617" max="15617" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15618" max="15618" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="15619" max="15619" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15620" max="15620" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="15621" max="15621" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="15622" max="15623" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15624" max="15624" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="15625" max="15625" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15626" max="15626" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15627" max="15627" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="15628" max="15628" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15629" max="15872" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15873" max="15873" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15874" max="15874" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="15875" max="15875" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15876" max="15876" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="15877" max="15877" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="15878" max="15879" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15880" max="15880" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="15881" max="15881" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15882" max="15882" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15883" max="15883" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="15884" max="15884" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="15885" max="16128" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="16129" max="16129" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="16130" max="16130" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
+    <col min="16131" max="16131" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="16132" max="16132" style="37" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="16133" max="16133" style="37" width="22.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="16134" max="16135" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="16136" max="16136" style="37" width="15.56055567" customWidth="1" outlineLevel="0"/>
+    <col min="16137" max="16137" style="37" width="11.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="16138" max="16138" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="16139" max="16139" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
+    <col min="16140" max="16140" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="16141" max="16384" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="34.500000" customHeight="1">
+      <c r="A1" s="360" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="361"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="364"/>
+    </row>
+    <row r="2" spans="1:13" s="29" customFormat="1" ht="16.500000">
+      <c r="A2" s="294"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="386" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="297"/>
+      <c r="L2" s="270"/>
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1" ht="33.000000">
+      <c r="A3" s="518" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="519" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="518" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="518" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="518" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="518" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="518" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="518" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="520" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="519" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A4" s="521" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="522" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="403" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="403" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="403" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="523" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="398" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A5" s="524"/>
+      <c r="B5" s="522"/>
+      <c r="C5" s="403" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="403" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="403" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="398" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="398" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A6" s="524"/>
+      <c r="B6" s="522"/>
+      <c r="C6" s="403" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="403" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="403" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="398" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="398" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="398" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A7" s="524"/>
+      <c r="B7" s="522"/>
+      <c r="C7" s="403" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="403" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="403" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="398" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J7" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A8" s="524"/>
+      <c r="B8" s="522"/>
+      <c r="C8" s="403" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="403" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="403" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="398" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A9" s="524"/>
+      <c r="B9" s="522"/>
+      <c r="C9" s="403" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="403" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="403" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="525" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="525" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="398" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="398" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="526" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="527" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A10" s="524"/>
+      <c r="B10" s="522"/>
+      <c r="C10" s="403" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="403" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="403" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="528" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="398" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="398" t="s">
+        <v>349</v>
+      </c>
+      <c r="J10" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A11" s="524"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="403" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="403" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="403" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="523" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="398" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="403" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A12" s="529"/>
+      <c r="B12" s="530" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="403" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="403" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="403" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="398" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="398" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="398" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A13" s="529"/>
+      <c r="B13" s="530"/>
+      <c r="C13" s="403" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="403" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="403" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="398" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="398" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="398" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A14" s="529"/>
+      <c r="B14" s="531"/>
+      <c r="C14" s="403" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="403" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="403" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="398" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="398" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J14" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="288"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A15" s="529"/>
+      <c r="B15" s="531"/>
+      <c r="C15" s="403" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="403" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="403" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="398" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="398" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15" s="398" t="s">
+        <v>341</v>
+      </c>
+      <c r="J15" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="288"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A16" s="529"/>
+      <c r="B16" s="531"/>
+      <c r="C16" s="403" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="403" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="403" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="398" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="398" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="398" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="288"/>
+    </row>
+    <row r="17" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
+      <c r="A17" s="524"/>
+      <c r="B17" s="532"/>
+      <c r="C17" s="403" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="403" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" s="403" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="398" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="398" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="398" t="s">
+        <v>346</v>
+      </c>
+      <c r="J17" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A18" s="529"/>
+      <c r="B18" s="530"/>
+      <c r="C18" s="404" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="403" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="403" t="s">
+        <v>315</v>
+      </c>
+      <c r="F18" s="398" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="398" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A19" s="529"/>
+      <c r="B19" s="533" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="403" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="404" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="403" t="s">
+        <v>258</v>
+      </c>
+      <c r="F19" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="398" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="398" t="s">
+        <v>342</v>
+      </c>
+      <c r="J19" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A20" s="529"/>
+      <c r="B20" s="533"/>
+      <c r="C20" s="403" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="404" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" s="403" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="398" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="398" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A21" s="529"/>
+      <c r="B21" s="533"/>
+      <c r="C21" s="403" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="404" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" s="403" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="398" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A22" s="529"/>
+      <c r="B22" s="533"/>
+      <c r="C22" s="403" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="404" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="403" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="398" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A23" s="529"/>
+      <c r="B23" s="533"/>
+      <c r="C23" s="403" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="404" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="403" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="398" t="s">
+        <v>289</v>
+      </c>
+      <c r="I23" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="J23" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A24" s="529"/>
+      <c r="B24" s="534"/>
+      <c r="C24" s="403" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="404" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="403" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="398" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="398" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.500000">
+      <c r="A25" s="529"/>
+      <c r="B25" s="533"/>
+      <c r="C25" s="403" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="404" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="403" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="398" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="398" t="s">
+        <v>291</v>
+      </c>
+      <c r="I25" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" s="399" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="399" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.000000" customHeight="1">
+      <c r="A26" s="529"/>
+      <c r="B26" s="533"/>
+      <c r="C26" s="403" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="404" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="403" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="523" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="398" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="398" t="s">
+        <v>313</v>
+      </c>
+      <c r="I26" s="398" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="403" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A27" s="529"/>
+      <c r="B27" s="533"/>
+      <c r="C27" s="403" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="404" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="403" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="523" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="398" t="s">
+        <v>320</v>
+      </c>
+      <c r="I27" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="403" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A28" s="521"/>
+      <c r="B28" s="535" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="403" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="403" t="s">
+        <v>380</v>
+      </c>
+      <c r="E28" s="403" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="523" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="398" t="s">
+        <v>316</v>
+      </c>
+      <c r="I28" s="398" t="s">
+        <v>349</v>
+      </c>
+      <c r="J28" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="403" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A29" s="397" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="402"/>
+      <c r="C29" s="403" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="403" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" s="403" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="523" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" s="398" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="398" t="s">
+        <v>308</v>
+      </c>
+      <c r="I29" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J29" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="403" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A30" s="387"/>
+      <c r="B30" s="388"/>
+      <c r="C30" s="388"/>
+      <c r="D30" s="388"/>
+      <c r="E30" s="388"/>
+      <c r="F30" s="390"/>
+      <c r="G30" s="390"/>
+      <c r="H30" s="388"/>
+      <c r="I30" s="392"/>
+      <c r="J30" s="392"/>
+      <c r="K30" s="392"/>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A31" s="387"/>
+      <c r="B31" s="388"/>
+      <c r="C31" s="388"/>
+      <c r="D31" s="388"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="390"/>
+      <c r="G31" s="390"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="392"/>
+      <c r="J31" s="392"/>
+      <c r="K31" s="392"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.000000" customHeight="1">
+      <c r="A32" s="387"/>
+      <c r="B32" s="388"/>
+    </row>
+    <row r="33" spans="1:2" ht="18.000000" customHeight="1">
+      <c r="A33" s="387"/>
+      <c r="B33" s="388"/>
+    </row>
+    <row r="34" spans="1:2" ht="18.000000" customHeight="1">
+      <c r="A34" s="387"/>
+      <c r="B34" s="388"/>
+    </row>
+    <row r="35" spans="1:2" ht="18.000000" customHeight="1">
+      <c r="A35" s="387"/>
+      <c r="B35" s="388"/>
+    </row>
+    <row r="36" spans="1:2" ht="18.000000" customHeight="1">
+      <c r="A36" s="387"/>
+      <c r="B36" s="388"/>
+    </row>
+    <row r="37" ht="18.000000" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B28:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:K31 K5 K4 K29 K6:K8 K9:K10 K11 K12:K13 K14 K16:K18 K15 K25 K26 K27 K28">
+      <formula1>"완료,진행중,미진행"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.27" right="0.16" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L서일대학교&amp;R프로젝트관리 캡스톤 디자인</oddHeader>
+    <oddFooter>&amp;L프로그램 기능 정의서&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -6842,10 +6842,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L1"/>
+      <selection activeCell="B28" sqref="B4:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'변경 전'!$A$1:$L$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'변경 후'!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'변경 후'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'변경 전'!$1:$5</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1183,6 +1183,21 @@
   </si>
   <si>
     <t>MD-2</t>
+  </si>
+  <si>
+    <t>프로그램 안내</t>
+  </si>
+  <si>
+    <t>MC-10</t>
+  </si>
+  <si>
+    <t>서일대학교의 프로그램에 대해서 리스트로 사용자에게 보여줌</t>
+  </si>
+  <si>
+    <t>C /R</t>
+  </si>
+  <si>
+    <t>C / R / U</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +2005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2503,6 +2518,16 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2683,7 +2708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="536">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4254,6 +4279,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6842,10 +6885,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B4:B29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -7945,7 +7988,7 @@
         <v>339</v>
       </c>
       <c r="F11" s="523" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="G11" s="398" t="s">
         <v>62</v>
@@ -8049,7 +8092,7 @@
         <v>337</v>
       </c>
       <c r="F14" s="398" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="G14" s="398" t="s">
         <v>62</v>
@@ -8084,7 +8127,7 @@
         <v>338</v>
       </c>
       <c r="F15" s="398" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="G15" s="398" t="s">
         <v>62</v>
@@ -8119,7 +8162,7 @@
         <v>247</v>
       </c>
       <c r="F16" s="398" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="G16" s="398" t="s">
         <v>62</v>
@@ -8154,7 +8197,7 @@
         <v>248</v>
       </c>
       <c r="F17" s="398" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="G17" s="398" t="s">
         <v>62</v>
@@ -8211,7 +8254,7 @@
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A19" s="529"/>
-      <c r="B19" s="533" t="s">
+      <c r="B19" s="538" t="s">
         <v>354</v>
       </c>
       <c r="C19" s="403" t="s">
@@ -8247,7 +8290,7 @@
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A20" s="529"/>
-      <c r="B20" s="533"/>
+      <c r="B20" s="539"/>
       <c r="C20" s="403" t="s">
         <v>204</v>
       </c>
@@ -8281,7 +8324,7 @@
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A21" s="529"/>
-      <c r="B21" s="533"/>
+      <c r="B21" s="539"/>
       <c r="C21" s="403" t="s">
         <v>210</v>
       </c>
@@ -8315,7 +8358,7 @@
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A22" s="529"/>
-      <c r="B22" s="533"/>
+      <c r="B22" s="539"/>
       <c r="C22" s="403" t="s">
         <v>212</v>
       </c>
@@ -8349,7 +8392,7 @@
     </row>
     <row r="23" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A23" s="529"/>
-      <c r="B23" s="533"/>
+      <c r="B23" s="539"/>
       <c r="C23" s="403" t="s">
         <v>202</v>
       </c>
@@ -8384,7 +8427,7 @@
     </row>
     <row r="24" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A24" s="529"/>
-      <c r="B24" s="534"/>
+      <c r="B24" s="540"/>
       <c r="C24" s="403" t="s">
         <v>203</v>
       </c>
@@ -8416,9 +8459,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.500000">
+    <row r="25" spans="1:13" ht="16.500000" customHeight="1">
       <c r="A25" s="529"/>
-      <c r="B25" s="533"/>
+      <c r="B25" s="539"/>
       <c r="C25" s="403" t="s">
         <v>213</v>
       </c>
@@ -8452,7 +8495,7 @@
     </row>
     <row r="26" spans="1:13" ht="20.000000" customHeight="1">
       <c r="A26" s="529"/>
-      <c r="B26" s="533"/>
+      <c r="B26" s="539"/>
       <c r="C26" s="403" t="s">
         <v>310</v>
       </c>
@@ -8486,7 +8529,7 @@
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A27" s="529"/>
-      <c r="B27" s="533"/>
+      <c r="B27" s="539"/>
       <c r="C27" s="403" t="s">
         <v>318</v>
       </c>
@@ -8519,66 +8562,52 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A28" s="521"/>
-      <c r="B28" s="535" t="s">
-        <v>355</v>
-      </c>
+      <c r="A28" s="529"/>
+      <c r="B28" s="541"/>
       <c r="C28" s="403" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="403" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="D28" s="404" t="s">
+        <v>383</v>
       </c>
       <c r="E28" s="403" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="F28" s="523" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" s="398" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="398" t="s">
-        <v>316</v>
-      </c>
-      <c r="I28" s="398" t="s">
-        <v>349</v>
-      </c>
-      <c r="J28" s="403" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="400" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="403" t="s">
-        <v>126</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G28" s="398"/>
+      <c r="H28" s="398"/>
+      <c r="I28" s="398"/>
+      <c r="J28" s="403"/>
+      <c r="K28" s="400"/>
+      <c r="L28" s="403"/>
     </row>
     <row r="29" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A29" s="397" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="402"/>
+      <c r="A29" s="521"/>
+      <c r="B29" s="535" t="s">
+        <v>355</v>
+      </c>
       <c r="C29" s="403" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D29" s="403" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E29" s="403" t="s">
-        <v>307</v>
-      </c>
-      <c r="F29" s="523" t="s">
-        <v>298</v>
+        <v>303</v>
+      </c>
+      <c r="F29" s="523">
+        <v>4</v>
       </c>
       <c r="G29" s="398" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H29" s="398" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="I29" s="398" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J29" s="403" t="s">
         <v>126</v>
@@ -8591,18 +8620,40 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A30" s="387"/>
-      <c r="B30" s="388"/>
-      <c r="C30" s="388"/>
-      <c r="D30" s="388"/>
-      <c r="E30" s="388"/>
-      <c r="F30" s="390"/>
-      <c r="G30" s="390"/>
-      <c r="H30" s="388"/>
-      <c r="I30" s="392"/>
-      <c r="J30" s="392"/>
-      <c r="K30" s="392"/>
-      <c r="L30" s="23"/>
+      <c r="A30" s="397" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="402"/>
+      <c r="C30" s="403" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="403" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="403" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="523" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="398" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="398" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="403" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A31" s="387"/>
@@ -8621,36 +8672,51 @@
     <row r="32" spans="1:13" ht="18.000000" customHeight="1">
       <c r="A32" s="387"/>
       <c r="B32" s="388"/>
+      <c r="C32" s="388"/>
+      <c r="D32" s="388"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="390"/>
+      <c r="G32" s="390"/>
+      <c r="H32" s="388"/>
+      <c r="I32" s="392"/>
+      <c r="J32" s="392"/>
+      <c r="K32" s="392"/>
+      <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:2" ht="18.000000" customHeight="1">
+    <row r="33" spans="1:3" ht="18.000000" customHeight="1">
       <c r="A33" s="387"/>
       <c r="B33" s="388"/>
+      <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="1:2" ht="18.000000" customHeight="1">
+    <row r="34" spans="1:3" ht="18.000000" customHeight="1">
       <c r="A34" s="387"/>
       <c r="B34" s="388"/>
     </row>
-    <row r="35" spans="1:2" ht="18.000000" customHeight="1">
+    <row r="35" spans="1:3" ht="18.000000" customHeight="1">
       <c r="A35" s="387"/>
       <c r="B35" s="388"/>
     </row>
-    <row r="36" spans="1:2" ht="18.000000" customHeight="1">
+    <row r="36" spans="1:3" ht="18.000000" customHeight="1">
       <c r="A36" s="387"/>
       <c r="B36" s="388"/>
     </row>
-    <row r="37" ht="18.000000" customHeight="1"/>
+    <row r="37" spans="1:3" ht="18.000000" customHeight="1">
+      <c r="A37" s="387"/>
+      <c r="B37" s="388"/>
+    </row>
+    <row r="38" ht="18.000000" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A4:A28"/>
+    <mergeCell ref="A4:A29"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:K31 K5 K4 K29 K6:K8 K9:K10 K11 K12:K13 K14 K16:K18 K15 K25 K26 K27 K28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31:K32 K5 K4 K30 K6:K8 K9:K10 K11 K12:K13 K14 K16:K18 K15 K25 K26 K27 K29">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
+++ b/Project_Design/프로그램 기능 정의서/프로그램 기능 정의서.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'변경 전'!$A$1:$L$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'변경 후'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'변경 후'!$A$1:$L$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'변경 전'!$1:$5</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -1198,6 +1198,18 @@
   </si>
   <si>
     <t>C / R / U</t>
+  </si>
+  <si>
+    <t>ProgramW</t>
+  </si>
+  <si>
+    <t>C/R/U</t>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>사용자가 궁금한 점에 대한 답변을 받음</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1778,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2004,8 +2016,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2528,6 +2546,28 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2708,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4297,6 +4337,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="40" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="24" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5000,7 +5100,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
   <headerFooter differentFirst="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6871,7 +6971,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.27" right="0.16" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;L서일대학교&amp;R프로젝트관리 캡스톤 디자인</oddHeader>
     <oddFooter>&amp;L프로그램 기능 정의서&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
@@ -6885,10 +6985,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -7734,7 +7834,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="547" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="522" t="s">
@@ -7772,7 +7872,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A5" s="524"/>
+      <c r="A5" s="548"/>
       <c r="B5" s="522"/>
       <c r="C5" s="403" t="s">
         <v>351</v>
@@ -7806,7 +7906,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A6" s="524"/>
+      <c r="A6" s="548"/>
       <c r="B6" s="522"/>
       <c r="C6" s="403" t="s">
         <v>352</v>
@@ -7840,7 +7940,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A7" s="524"/>
+      <c r="A7" s="548"/>
       <c r="B7" s="522"/>
       <c r="C7" s="403" t="s">
         <v>208</v>
@@ -7874,7 +7974,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A8" s="524"/>
+      <c r="A8" s="548"/>
       <c r="B8" s="522"/>
       <c r="C8" s="403" t="s">
         <v>209</v>
@@ -7908,7 +8008,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A9" s="524"/>
+      <c r="A9" s="548"/>
       <c r="B9" s="522"/>
       <c r="C9" s="403" t="s">
         <v>198</v>
@@ -7942,7 +8042,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A10" s="524"/>
+      <c r="A10" s="548"/>
       <c r="B10" s="522"/>
       <c r="C10" s="403" t="s">
         <v>292</v>
@@ -7976,7 +8076,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A11" s="524"/>
+      <c r="A11" s="548"/>
       <c r="B11" s="522"/>
       <c r="C11" s="403" t="s">
         <v>322</v>
@@ -8010,7 +8110,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A12" s="529"/>
+      <c r="A12" s="549"/>
       <c r="B12" s="530" t="s">
         <v>353</v>
       </c>
@@ -8046,7 +8146,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A13" s="529"/>
+      <c r="A13" s="549"/>
       <c r="B13" s="530"/>
       <c r="C13" s="403" t="s">
         <v>195</v>
@@ -8080,7 +8180,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A14" s="529"/>
+      <c r="A14" s="549"/>
       <c r="B14" s="531"/>
       <c r="C14" s="403" t="s">
         <v>331</v>
@@ -8115,7 +8215,7 @@
       <c r="M14" s="288"/>
     </row>
     <row r="15" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A15" s="529"/>
+      <c r="A15" s="549"/>
       <c r="B15" s="531"/>
       <c r="C15" s="403" t="s">
         <v>332</v>
@@ -8150,7 +8250,7 @@
       <c r="M15" s="288"/>
     </row>
     <row r="16" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A16" s="529"/>
+      <c r="A16" s="549"/>
       <c r="B16" s="531"/>
       <c r="C16" s="403" t="s">
         <v>329</v>
@@ -8185,7 +8285,7 @@
       <c r="M16" s="288"/>
     </row>
     <row r="17" spans="1:13" s="29" customFormat="1" ht="20.000000" customHeight="1">
-      <c r="A17" s="524"/>
+      <c r="A17" s="548"/>
       <c r="B17" s="532"/>
       <c r="C17" s="403" t="s">
         <v>335</v>
@@ -8219,7 +8319,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A18" s="529"/>
+      <c r="A18" s="549"/>
       <c r="B18" s="530"/>
       <c r="C18" s="404" t="s">
         <v>317</v>
@@ -8253,7 +8353,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A19" s="529"/>
+      <c r="A19" s="549"/>
       <c r="B19" s="538" t="s">
         <v>354</v>
       </c>
@@ -8289,7 +8389,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A20" s="529"/>
+      <c r="A20" s="549"/>
       <c r="B20" s="539"/>
       <c r="C20" s="403" t="s">
         <v>204</v>
@@ -8323,7 +8423,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A21" s="529"/>
+      <c r="A21" s="549"/>
       <c r="B21" s="539"/>
       <c r="C21" s="403" t="s">
         <v>210</v>
@@ -8357,7 +8457,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A22" s="529"/>
+      <c r="A22" s="549"/>
       <c r="B22" s="539"/>
       <c r="C22" s="403" t="s">
         <v>212</v>
@@ -8391,7 +8491,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A23" s="529"/>
+      <c r="A23" s="549"/>
       <c r="B23" s="539"/>
       <c r="C23" s="403" t="s">
         <v>202</v>
@@ -8426,7 +8526,7 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A24" s="529"/>
+      <c r="A24" s="549"/>
       <c r="B24" s="540"/>
       <c r="C24" s="403" t="s">
         <v>203</v>
@@ -8460,7 +8560,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A25" s="529"/>
+      <c r="A25" s="549"/>
       <c r="B25" s="539"/>
       <c r="C25" s="403" t="s">
         <v>213</v>
@@ -8494,7 +8594,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="20.000000" customHeight="1">
-      <c r="A26" s="529"/>
+      <c r="A26" s="549"/>
       <c r="B26" s="539"/>
       <c r="C26" s="403" t="s">
         <v>310</v>
@@ -8528,7 +8628,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A27" s="529"/>
+      <c r="A27" s="549"/>
       <c r="B27" s="539"/>
       <c r="C27" s="403" t="s">
         <v>318</v>
@@ -8562,7 +8662,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A28" s="529"/>
+      <c r="A28" s="549"/>
       <c r="B28" s="541"/>
       <c r="C28" s="403" t="s">
         <v>382</v>
@@ -8576,29 +8676,41 @@
       <c r="F28" s="523" t="s">
         <v>267</v>
       </c>
-      <c r="G28" s="398"/>
-      <c r="H28" s="398"/>
-      <c r="I28" s="398"/>
-      <c r="J28" s="403"/>
-      <c r="K28" s="400"/>
-      <c r="L28" s="403"/>
+      <c r="G28" s="398" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="398" t="s">
+        <v>387</v>
+      </c>
+      <c r="I28" s="398" t="s">
+        <v>348</v>
+      </c>
+      <c r="J28" s="403" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="400" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="403" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A29" s="521"/>
-      <c r="B29" s="535" t="s">
+      <c r="A29" s="550"/>
+      <c r="B29" s="546" t="s">
         <v>355</v>
       </c>
       <c r="C29" s="403" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="D29" s="403" t="s">
         <v>380</v>
       </c>
       <c r="E29" s="403" t="s">
-        <v>303</v>
-      </c>
-      <c r="F29" s="523">
-        <v>4</v>
+        <v>390</v>
+      </c>
+      <c r="F29" s="523" t="s">
+        <v>388</v>
       </c>
       <c r="G29" s="398" t="s">
         <v>62</v>
@@ -8620,91 +8732,93 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A30" s="397" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="402"/>
-      <c r="C30" s="403" t="s">
-        <v>305</v>
-      </c>
-      <c r="D30" s="403" t="s">
-        <v>381</v>
-      </c>
-      <c r="E30" s="403" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="523" t="s">
-        <v>298</v>
-      </c>
-      <c r="G30" s="398" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="398" t="s">
-        <v>308</v>
-      </c>
-      <c r="I30" s="398" t="s">
-        <v>348</v>
-      </c>
-      <c r="J30" s="403" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" s="400" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="403" t="s">
-        <v>126</v>
-      </c>
+      <c r="A30" s="551"/>
+      <c r="B30" s="552"/>
+      <c r="C30" s="553"/>
+      <c r="D30" s="553"/>
+      <c r="E30" s="553"/>
+      <c r="F30" s="553"/>
+      <c r="G30" s="554"/>
+      <c r="H30" s="554"/>
+      <c r="I30" s="554"/>
+      <c r="J30" s="553"/>
+      <c r="K30" s="554"/>
+      <c r="L30" s="553"/>
     </row>
     <row r="31" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A31" s="387"/>
-      <c r="B31" s="388"/>
-      <c r="C31" s="388"/>
-      <c r="D31" s="388"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="390"/>
-      <c r="G31" s="390"/>
-      <c r="H31" s="388"/>
-      <c r="I31" s="392"/>
-      <c r="J31" s="392"/>
-      <c r="K31" s="392"/>
-      <c r="L31" s="23"/>
+      <c r="A31" s="555"/>
+      <c r="B31" s="556"/>
+      <c r="C31" s="557"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="389"/>
+      <c r="G31" s="389"/>
+      <c r="H31" s="557"/>
+      <c r="I31" s="558"/>
+      <c r="J31" s="558"/>
+      <c r="K31" s="558"/>
+      <c r="L31" s="559"/>
     </row>
     <row r="32" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A32" s="387"/>
-      <c r="B32" s="388"/>
-      <c r="C32" s="388"/>
-      <c r="D32" s="388"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="390"/>
-      <c r="G32" s="390"/>
-      <c r="H32" s="388"/>
-      <c r="I32" s="392"/>
-      <c r="J32" s="392"/>
-      <c r="K32" s="392"/>
-      <c r="L32" s="23"/>
+      <c r="A32" s="555"/>
+      <c r="B32" s="556"/>
+      <c r="C32" s="557"/>
+      <c r="D32" s="557"/>
+      <c r="E32" s="557"/>
+      <c r="F32" s="389"/>
+      <c r="G32" s="389"/>
+      <c r="H32" s="557"/>
+      <c r="I32" s="558"/>
+      <c r="J32" s="558"/>
+      <c r="K32" s="558"/>
+      <c r="L32" s="559"/>
     </row>
-    <row r="33" spans="1:3" ht="18.000000" customHeight="1">
-      <c r="A33" s="387"/>
-      <c r="B33" s="388"/>
-      <c r="C33" s="38"/>
+    <row r="33" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A33" s="555"/>
+      <c r="B33" s="557"/>
+      <c r="C33" s="560"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="561"/>
+      <c r="F33" s="561"/>
+      <c r="G33" s="561"/>
+      <c r="H33" s="561"/>
+      <c r="I33" s="561"/>
+      <c r="J33" s="561"/>
+      <c r="K33" s="561"/>
+      <c r="L33" s="560"/>
     </row>
-    <row r="34" spans="1:3" ht="18.000000" customHeight="1">
-      <c r="A34" s="387"/>
-      <c r="B34" s="388"/>
+    <row r="34" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="A34" s="555"/>
+      <c r="B34" s="557"/>
+      <c r="C34" s="560"/>
+      <c r="D34" s="560"/>
+      <c r="E34" s="561"/>
+      <c r="F34" s="561"/>
+      <c r="G34" s="561"/>
+      <c r="H34" s="561"/>
+      <c r="I34" s="561"/>
+      <c r="J34" s="561"/>
+      <c r="K34" s="561"/>
+      <c r="L34" s="560"/>
     </row>
-    <row r="35" spans="1:3" ht="18.000000" customHeight="1">
+    <row r="35" spans="1:12" ht="18.000000" customHeight="1">
       <c r="A35" s="387"/>
       <c r="B35" s="388"/>
     </row>
-    <row r="36" spans="1:3" ht="18.000000" customHeight="1">
+    <row r="36" spans="1:12" ht="18.000000" customHeight="1">
       <c r="A36" s="387"/>
       <c r="B36" s="388"/>
     </row>
-    <row r="37" spans="1:3" ht="18.000000" customHeight="1">
+    <row r="37" spans="1:12" ht="18.000000" customHeight="1">
       <c r="A37" s="387"/>
       <c r="B37" s="388"/>
     </row>
-    <row r="38" ht="18.000000" customHeight="1"/>
+    <row r="38" spans="1:12" ht="18.000000" customHeight="1">
+      <c r="B38" s="388"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="388"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:L1"/>
@@ -8712,16 +8826,16 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A30:L34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31:K32 K5 K4 K30 K6:K8 K9:K10 K11 K12:K13 K14 K16:K18 K15 K25 K26 K27 K29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31:K32 K5 K4 K30 K6:K8 K9:K10 K11 K12:K13 K14 K16:K18 K15 K25 K26 K27 K29 K28">
       <formula1>"완료,진행중,미진행"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.27" right="0.16" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;L서일대학교&amp;R프로젝트관리 캡스톤 디자인</oddHeader>
     <oddFooter>&amp;L프로그램 기능 정의서&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
